--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1722313.784283575</v>
+        <v>1668287.096563623</v>
       </c>
     </row>
     <row r="7">
@@ -2320,64 +2320,64 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="D23" t="n">
+      <c r="G23" t="n">
+        <v>90.40311736807178</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>90.40311736807173</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>90.40311736807178</v>
       </c>
       <c r="U24" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>88.5281858897747</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>55.13016835440658</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>49.38227148909456</v>
       </c>
       <c r="S25" t="n">
         <v>102.6375083652041</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="W25" t="n">
-        <v>90.40311736807175</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>90.40311736807173</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>90.40311736807178</v>
       </c>
       <c r="S26" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U26" t="n">
         <v>102.6375083652041</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,22 +2636,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>94.84602574720758</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>98.19459998606824</v>
+        <v>41.9625954907097</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>88.09305158464015</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>62.98497865792598</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>97.18349706799866</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>46.29440282996946</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>44.10871453810229</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>95.85712866527719</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="W28" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>102.6375083652041</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>90.40311736807178</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>90.40311736807175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,25 +2873,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>39.49574879399911</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>60.36532955938718</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>95.81874681481339</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>88.09305158464015</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>62.98497865792598</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>40.14616727284459</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.90736857407262</v>
+        <v>50.90736857407265</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2936,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>46.29440282996946</v>
       </c>
       <c r="C31" t="n">
-        <v>53.49153969494788</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>44.10871453810229</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2994,23 +2994,23 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>36.91157767312387</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,17 +3031,17 @@
         <v>102.6375083652041</v>
       </c>
       <c r="C32" t="n">
+        <v>90.40311736807178</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>56.50993782447691</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>33.89317954359483</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,7 +3110,7 @@
         <v>73.17400353319456</v>
       </c>
       <c r="C33" t="n">
-        <v>17.22911383487716</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3170,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>102.6375083652041</v>
+        <v>14.0478296239691</v>
       </c>
       <c r="Y33" t="n">
         <v>102.6375083652041</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>35.2006912062937</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="T34" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="U34" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="V34" t="n">
-        <v>90.40311736807173</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,17 +3271,17 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="G35" t="n">
-        <v>90.40311736807182</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>33.89317954359483</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>39.62012628556361</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>43.98433704653786</v>
+        <v>35.36731587446781</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T36" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
       <c r="X36" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>55.25629290153958</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>52.06186790625847</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>74.63179924178598</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>68.8679923907668</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>83.93421126049671</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.472183952251135</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>62.08133853192354</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>33.89317954359483</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>90.40311736807182</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S38" t="n">
         <v>102.6375083652041</v>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>73.17400353319456</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>34.74397717694598</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>78.32399098716505</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X39" t="n">
-        <v>102.6375083652041</v>
+        <v>12.07912638090672</v>
       </c>
       <c r="Y39" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.46890610757507</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>83.93421126049671</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="W40" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="X40" t="n">
-        <v>102.6375083652041</v>
+        <v>28.31182255748626</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>90.4031173680718</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>90.40311736807178</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3824,10 +3824,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>98.19459998606825</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>50.90736857407263</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>43.93865717313493</v>
       </c>
       <c r="T42" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>90.4031173680718</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>102.6375083652041</v>
@@ -3912,41 +3912,41 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>9.382825156845586</v>
+      </c>
+      <c r="I43" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="H43" t="n">
+      <c r="J43" t="n">
+        <v>44.10871453810227</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>36.91157767312388</v>
+      </c>
+      <c r="R43" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X43" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.4031173680718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>92.42197337069668</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,37 +3997,37 @@
         <v>102.6375083652041</v>
       </c>
       <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>100.6186523625792</v>
+      </c>
+      <c r="S44" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>90.40311736807178</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4058,67 +4058,67 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>50.90736857407263</v>
+      </c>
+      <c r="S45" t="n">
+        <v>39.49574879399915</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>88.09305158464012</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>50.90736857407262</v>
-      </c>
-      <c r="S45" t="n">
+      <c r="W45" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>54.04020557456315</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.40311736807178</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="T46" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>90.40311736807182</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>410.5500334608164</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="C23" t="n">
-        <v>306.8757825868728</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="D23" t="n">
         <v>203.2015317129293</v>
@@ -5977,64 +5977,64 @@
         <v>203.2015317129293</v>
       </c>
       <c r="F23" t="n">
-        <v>203.2015317129293</v>
+        <v>99.52728083898579</v>
       </c>
       <c r="G23" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="H23" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I23" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J23" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K23" t="n">
-        <v>8.211000669216329</v>
+        <v>109.8221339507683</v>
       </c>
       <c r="L23" t="n">
-        <v>109.8221339507684</v>
+        <v>109.8221339507683</v>
       </c>
       <c r="M23" t="n">
         <v>211.4332672323204</v>
       </c>
       <c r="N23" t="n">
-        <v>219.2788448872134</v>
+        <v>313.0444005138724</v>
       </c>
       <c r="O23" t="n">
-        <v>320.8899781687654</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="P23" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q23" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R23" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S23" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T23" t="n">
-        <v>410.5500334608164</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="U23" t="n">
-        <v>410.5500334608164</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V23" t="n">
-        <v>410.5500334608164</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="W23" t="n">
-        <v>410.5500334608164</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="X23" t="n">
-        <v>410.5500334608164</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="Y23" t="n">
-        <v>410.5500334608164</v>
+        <v>203.2015317129293</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="C24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="D24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="E24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="F24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="G24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="H24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K24" t="n">
-        <v>109.8221339507684</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="L24" t="n">
-        <v>211.4332672323204</v>
+        <v>109.8221339507683</v>
       </c>
       <c r="M24" t="n">
-        <v>239.5443416659351</v>
+        <v>137.9332083843829</v>
       </c>
       <c r="N24" t="n">
-        <v>239.5443416659351</v>
+        <v>137.9332083843829</v>
       </c>
       <c r="O24" t="n">
-        <v>239.5443416659351</v>
+        <v>239.544341665935</v>
       </c>
       <c r="P24" t="n">
-        <v>341.1554749474871</v>
+        <v>341.155474947487</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R24" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S24" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T24" t="n">
-        <v>319.2337532910469</v>
+        <v>319.2337532910468</v>
       </c>
       <c r="U24" t="n">
-        <v>215.5595024171034</v>
+        <v>319.2337532910468</v>
       </c>
       <c r="V24" t="n">
-        <v>111.8852515431599</v>
+        <v>215.5595024171033</v>
       </c>
       <c r="W24" t="n">
-        <v>111.8852515431599</v>
+        <v>111.8852515431598</v>
       </c>
       <c r="X24" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431598</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
     </row>
     <row r="25">
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.211000669216329</v>
+        <v>63.89803941104115</v>
       </c>
       <c r="C25" t="n">
-        <v>8.211000669216329</v>
+        <v>63.89803941104115</v>
       </c>
       <c r="D25" t="n">
-        <v>8.211000669216329</v>
+        <v>63.89803941104115</v>
       </c>
       <c r="E25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="F25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="G25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="H25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K25" t="n">
-        <v>76.55496011083333</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="L25" t="n">
-        <v>178.1660933923854</v>
+        <v>90.2016267112639</v>
       </c>
       <c r="M25" t="n">
-        <v>217.3541315846076</v>
+        <v>191.8127599928159</v>
       </c>
       <c r="N25" t="n">
         <v>293.423893274368</v>
@@ -6168,31 +6168,31 @@
         <v>405.4596999307528</v>
       </c>
       <c r="Q25" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R25" t="n">
-        <v>410.5500334608164</v>
+        <v>360.6689511485995</v>
       </c>
       <c r="S25" t="n">
-        <v>306.8757825868728</v>
+        <v>256.9947002746561</v>
       </c>
       <c r="T25" t="n">
-        <v>306.8757825868728</v>
+        <v>256.9947002746561</v>
       </c>
       <c r="U25" t="n">
-        <v>306.8757825868728</v>
+        <v>256.9947002746561</v>
       </c>
       <c r="V25" t="n">
-        <v>306.8757825868728</v>
+        <v>153.3204494007126</v>
       </c>
       <c r="W25" t="n">
-        <v>215.5595024171034</v>
+        <v>153.3204494007126</v>
       </c>
       <c r="X25" t="n">
-        <v>111.8852515431599</v>
+        <v>153.3204494007126</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.211000669216329</v>
+        <v>153.3204494007126</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>99.52728083898576</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="C26" t="n">
-        <v>99.52728083898576</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="D26" t="n">
-        <v>99.52728083898576</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="E26" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="F26" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="G26" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="H26" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I26" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J26" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K26" t="n">
-        <v>8.211000669216329</v>
+        <v>109.8221339507683</v>
       </c>
       <c r="L26" t="n">
-        <v>16.05657832410927</v>
+        <v>207.3277668977122</v>
       </c>
       <c r="M26" t="n">
-        <v>117.6677116056613</v>
+        <v>207.3277668977122</v>
       </c>
       <c r="N26" t="n">
-        <v>219.2788448872134</v>
+        <v>308.9389001792642</v>
       </c>
       <c r="O26" t="n">
-        <v>320.8899781687654</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="P26" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q26" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R26" t="n">
-        <v>410.5500334608164</v>
+        <v>319.2337532910468</v>
       </c>
       <c r="S26" t="n">
-        <v>306.8757825868728</v>
+        <v>215.5595024171033</v>
       </c>
       <c r="T26" t="n">
-        <v>306.8757825868728</v>
+        <v>111.8852515431598</v>
       </c>
       <c r="U26" t="n">
-        <v>203.2015317129293</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="V26" t="n">
-        <v>203.2015317129293</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="W26" t="n">
-        <v>203.2015317129293</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="X26" t="n">
-        <v>99.52728083898576</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="Y26" t="n">
-        <v>99.52728083898576</v>
+        <v>8.211000669216325</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>203.2015317129293</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="C27" t="n">
-        <v>107.3974653016085</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="D27" t="n">
-        <v>8.211000669216329</v>
+        <v>264.4893224952468</v>
       </c>
       <c r="E27" t="n">
-        <v>8.211000669216329</v>
+        <v>160.8150716213033</v>
       </c>
       <c r="F27" t="n">
-        <v>8.211000669216329</v>
+        <v>160.8150716213033</v>
       </c>
       <c r="G27" t="n">
-        <v>8.211000669216329</v>
+        <v>71.83219123277792</v>
       </c>
       <c r="H27" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I27" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J27" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K27" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="L27" t="n">
-        <v>109.8221339507684</v>
+        <v>109.8221339507683</v>
       </c>
       <c r="M27" t="n">
         <v>211.4332672323204</v>
       </c>
       <c r="N27" t="n">
-        <v>313.0444005138725</v>
+        <v>313.0444005138724</v>
       </c>
       <c r="O27" t="n">
-        <v>341.1554749474871</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="P27" t="n">
-        <v>341.1554749474871</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R27" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S27" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T27" t="n">
-        <v>410.5500334608164</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="U27" t="n">
-        <v>410.5500334608164</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V27" t="n">
-        <v>410.5500334608164</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="W27" t="n">
         <v>306.8757825868728</v>
@@ -6350,7 +6350,7 @@
         <v>306.8757825868728</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.2015317129293</v>
+        <v>306.8757825868728</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.3761492227503</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="C28" t="n">
-        <v>106.3761492227503</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="D28" t="n">
-        <v>106.3761492227503</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="E28" t="n">
-        <v>8.211000669216329</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="F28" t="n">
-        <v>8.211000669216329</v>
+        <v>156.4395086523541</v>
       </c>
       <c r="G28" t="n">
-        <v>8.211000669216329</v>
+        <v>156.4395086523541</v>
       </c>
       <c r="H28" t="n">
-        <v>8.211000669216329</v>
+        <v>156.4395086523541</v>
       </c>
       <c r="I28" t="n">
-        <v>8.211000669216329</v>
+        <v>52.76525777841056</v>
       </c>
       <c r="J28" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K28" t="n">
-        <v>34.92216468437715</v>
+        <v>34.92216468437708</v>
       </c>
       <c r="L28" t="n">
-        <v>110.9942506148749</v>
+        <v>110.9942506148748</v>
       </c>
       <c r="M28" t="n">
-        <v>198.9402497298819</v>
+        <v>198.9402497298818</v>
       </c>
       <c r="N28" t="n">
-        <v>291.389061308103</v>
+        <v>291.3890613081029</v>
       </c>
       <c r="O28" t="n">
-        <v>364.486298865787</v>
+        <v>364.4862988657869</v>
       </c>
       <c r="P28" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q28" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R28" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S28" t="n">
-        <v>313.7246509706374</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="T28" t="n">
-        <v>313.7246509706374</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="U28" t="n">
-        <v>313.7246509706374</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V28" t="n">
-        <v>210.0504000966939</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="W28" t="n">
-        <v>106.3761492227503</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="X28" t="n">
-        <v>106.3761492227503</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.3761492227503</v>
+        <v>203.2015317129293</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>215.5595024171034</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="C29" t="n">
-        <v>215.5595024171034</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="D29" t="n">
-        <v>215.5595024171034</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="E29" t="n">
-        <v>111.8852515431599</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="F29" t="n">
-        <v>8.211000669216329</v>
+        <v>99.52728083898579</v>
       </c>
       <c r="G29" t="n">
-        <v>8.211000669216329</v>
+        <v>99.52728083898579</v>
       </c>
       <c r="H29" t="n">
-        <v>8.211000669216329</v>
+        <v>99.52728083898579</v>
       </c>
       <c r="I29" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J29" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K29" t="n">
-        <v>105.7166336161603</v>
+        <v>109.8221339507683</v>
       </c>
       <c r="L29" t="n">
-        <v>207.3277668977123</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M29" t="n">
-        <v>207.3277668977123</v>
+        <v>313.0444005138724</v>
       </c>
       <c r="N29" t="n">
-        <v>308.9389001792644</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="O29" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="P29" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q29" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R29" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S29" t="n">
-        <v>306.8757825868728</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T29" t="n">
-        <v>306.8757825868728</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="U29" t="n">
-        <v>306.8757825868728</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="V29" t="n">
         <v>306.8757825868728</v>
       </c>
       <c r="W29" t="n">
-        <v>306.8757825868728</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="X29" t="n">
-        <v>306.8757825868728</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="Y29" t="n">
-        <v>215.5595024171034</v>
+        <v>203.2015317129293</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48.10569642073058</v>
+        <v>359.1284490425611</v>
       </c>
       <c r="C30" t="n">
-        <v>8.211000669216329</v>
+        <v>359.1284490425611</v>
       </c>
       <c r="D30" t="n">
-        <v>8.211000669216329</v>
+        <v>359.1284490425611</v>
       </c>
       <c r="E30" t="n">
-        <v>8.211000669216329</v>
+        <v>298.1533686795437</v>
       </c>
       <c r="F30" t="n">
-        <v>8.211000669216329</v>
+        <v>201.3667557352878</v>
       </c>
       <c r="G30" t="n">
-        <v>8.211000669216329</v>
+        <v>112.3838753467624</v>
       </c>
       <c r="H30" t="n">
-        <v>8.211000669216329</v>
+        <v>48.76268478320077</v>
       </c>
       <c r="I30" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J30" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K30" t="n">
-        <v>109.8221339507684</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="L30" t="n">
-        <v>211.4332672323204</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="M30" t="n">
-        <v>313.0444005138725</v>
+        <v>36.32207510283088</v>
       </c>
       <c r="N30" t="n">
-        <v>341.1554749474871</v>
+        <v>137.9332083843829</v>
       </c>
       <c r="O30" t="n">
-        <v>341.1554749474871</v>
+        <v>239.544341665935</v>
       </c>
       <c r="P30" t="n">
-        <v>341.1554749474871</v>
+        <v>341.155474947487</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R30" t="n">
-        <v>359.1284490425612</v>
+        <v>359.1284490425611</v>
       </c>
       <c r="S30" t="n">
-        <v>359.1284490425612</v>
+        <v>359.1284490425611</v>
       </c>
       <c r="T30" t="n">
-        <v>255.4541981686177</v>
+        <v>359.1284490425611</v>
       </c>
       <c r="U30" t="n">
-        <v>255.4541981686177</v>
+        <v>359.1284490425611</v>
       </c>
       <c r="V30" t="n">
-        <v>255.4541981686177</v>
+        <v>359.1284490425611</v>
       </c>
       <c r="W30" t="n">
-        <v>255.4541981686177</v>
+        <v>359.1284490425611</v>
       </c>
       <c r="X30" t="n">
-        <v>151.7799472946741</v>
+        <v>359.1284490425611</v>
       </c>
       <c r="Y30" t="n">
-        <v>48.10569642073058</v>
+        <v>359.1284490425611</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62.24285894694147</v>
+        <v>156.4395086523541</v>
       </c>
       <c r="C31" t="n">
-        <v>8.211000669216329</v>
+        <v>52.76525777841056</v>
       </c>
       <c r="D31" t="n">
-        <v>8.211000669216329</v>
+        <v>52.76525777841056</v>
       </c>
       <c r="E31" t="n">
-        <v>8.211000669216329</v>
+        <v>52.76525777841056</v>
       </c>
       <c r="F31" t="n">
-        <v>8.211000669216329</v>
+        <v>52.76525777841056</v>
       </c>
       <c r="G31" t="n">
-        <v>8.211000669216329</v>
+        <v>52.76525777841056</v>
       </c>
       <c r="H31" t="n">
-        <v>8.211000669216329</v>
+        <v>52.76525777841056</v>
       </c>
       <c r="I31" t="n">
-        <v>8.211000669216329</v>
+        <v>52.76525777841056</v>
       </c>
       <c r="J31" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K31" t="n">
-        <v>34.92216468437711</v>
+        <v>34.92216468437708</v>
       </c>
       <c r="L31" t="n">
-        <v>110.9942506148749</v>
+        <v>110.9942506148748</v>
       </c>
       <c r="M31" t="n">
         <v>198.9402497298818</v>
       </c>
       <c r="N31" t="n">
-        <v>291.389061308103</v>
+        <v>291.3890613081029</v>
       </c>
       <c r="O31" t="n">
-        <v>364.486298865787</v>
+        <v>364.4862988657869</v>
       </c>
       <c r="P31" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q31" t="n">
-        <v>373.2656115687721</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R31" t="n">
-        <v>373.2656115687721</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S31" t="n">
-        <v>269.5913606948286</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T31" t="n">
-        <v>269.5913606948286</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="U31" t="n">
-        <v>165.917109820885</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V31" t="n">
-        <v>165.917109820885</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="W31" t="n">
-        <v>165.917109820885</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="X31" t="n">
-        <v>165.917109820885</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="Y31" t="n">
-        <v>62.24285894694147</v>
+        <v>203.2015317129293</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>111.8852515431599</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="C32" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431598</v>
       </c>
       <c r="D32" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431598</v>
       </c>
       <c r="E32" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431598</v>
       </c>
       <c r="F32" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="G32" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="H32" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I32" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J32" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K32" t="n">
-        <v>109.8221339507684</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="L32" t="n">
-        <v>117.6677116056613</v>
+        <v>105.7166336161602</v>
       </c>
       <c r="M32" t="n">
-        <v>117.6677116056613</v>
+        <v>207.3277668977122</v>
       </c>
       <c r="N32" t="n">
-        <v>219.2788448872134</v>
+        <v>308.9389001792642</v>
       </c>
       <c r="O32" t="n">
-        <v>320.8899781687654</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="P32" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q32" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R32" t="n">
-        <v>353.469288183567</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S32" t="n">
-        <v>353.469288183567</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T32" t="n">
-        <v>353.469288183567</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="U32" t="n">
-        <v>353.469288183567</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V32" t="n">
-        <v>353.469288183567</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="W32" t="n">
-        <v>353.469288183567</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="X32" t="n">
-        <v>319.2337532910469</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="Y32" t="n">
-        <v>215.5595024171034</v>
+        <v>306.8757825868728</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.61414595697104</v>
+        <v>132.7904510916212</v>
       </c>
       <c r="C33" t="n">
-        <v>8.211000669216329</v>
+        <v>52.6396239485475</v>
       </c>
       <c r="D33" t="n">
-        <v>8.211000669216329</v>
+        <v>52.6396239485475</v>
       </c>
       <c r="E33" t="n">
-        <v>8.211000669216329</v>
+        <v>52.6396239485475</v>
       </c>
       <c r="F33" t="n">
-        <v>8.211000669216329</v>
+        <v>52.6396239485475</v>
       </c>
       <c r="G33" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="H33" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I33" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J33" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K33" t="n">
-        <v>109.8221339507684</v>
+        <v>109.8221339507683</v>
       </c>
       <c r="L33" t="n">
-        <v>109.8221339507684</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M33" t="n">
-        <v>211.4332672323204</v>
+        <v>308.9389001792642</v>
       </c>
       <c r="N33" t="n">
-        <v>313.0444005138725</v>
+        <v>308.9389001792642</v>
       </c>
       <c r="O33" t="n">
-        <v>341.1554749474871</v>
+        <v>308.9389001792642</v>
       </c>
       <c r="P33" t="n">
-        <v>341.1554749474871</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R33" t="n">
-        <v>410.5500334608164</v>
+        <v>403.6827061517553</v>
       </c>
       <c r="S33" t="n">
-        <v>410.5500334608164</v>
+        <v>324.5675637404775</v>
       </c>
       <c r="T33" t="n">
-        <v>410.5500334608164</v>
+        <v>324.5675637404775</v>
       </c>
       <c r="U33" t="n">
-        <v>410.5500334608164</v>
+        <v>324.5675637404775</v>
       </c>
       <c r="V33" t="n">
-        <v>410.5500334608164</v>
+        <v>324.5675637404775</v>
       </c>
       <c r="W33" t="n">
-        <v>306.8757825868728</v>
+        <v>324.5675637404775</v>
       </c>
       <c r="X33" t="n">
-        <v>203.2015317129293</v>
+        <v>310.3778368475794</v>
       </c>
       <c r="Y33" t="n">
-        <v>99.52728083898576</v>
+        <v>206.7035859736359</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.211000669216329</v>
+        <v>183.9732661509554</v>
       </c>
       <c r="C34" t="n">
-        <v>8.211000669216329</v>
+        <v>183.9732661509554</v>
       </c>
       <c r="D34" t="n">
-        <v>8.211000669216329</v>
+        <v>183.9732661509554</v>
       </c>
       <c r="E34" t="n">
-        <v>8.211000669216329</v>
+        <v>130.3623747066156</v>
       </c>
       <c r="F34" t="n">
-        <v>8.211000669216329</v>
+        <v>77.77462934675856</v>
       </c>
       <c r="G34" t="n">
-        <v>8.211000669216329</v>
+        <v>77.77462934675856</v>
       </c>
       <c r="H34" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I34" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J34" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K34" t="n">
-        <v>78.58979207709835</v>
+        <v>78.58979207709834</v>
       </c>
       <c r="L34" t="n">
-        <v>129.2034838475267</v>
+        <v>105.9039170848113</v>
       </c>
       <c r="M34" t="n">
-        <v>168.3915220397489</v>
+        <v>145.0919552770335</v>
       </c>
       <c r="N34" t="n">
-        <v>212.0823726951852</v>
+        <v>246.7030885585855</v>
       </c>
       <c r="O34" t="n">
-        <v>313.6935059767372</v>
+        <v>313.6935059767371</v>
       </c>
       <c r="P34" t="n">
-        <v>403.4248679644878</v>
+        <v>403.4248679644877</v>
       </c>
       <c r="Q34" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R34" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S34" t="n">
-        <v>306.8757825868728</v>
+        <v>374.9937797170853</v>
       </c>
       <c r="T34" t="n">
-        <v>203.2015317129293</v>
+        <v>374.9937797170853</v>
       </c>
       <c r="U34" t="n">
-        <v>99.52728083898576</v>
+        <v>374.9937797170853</v>
       </c>
       <c r="V34" t="n">
-        <v>8.211000669216329</v>
+        <v>374.9937797170853</v>
       </c>
       <c r="W34" t="n">
-        <v>8.211000669216329</v>
+        <v>374.9937797170853</v>
       </c>
       <c r="X34" t="n">
-        <v>8.211000669216329</v>
+        <v>374.9937797170853</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.211000669216329</v>
+        <v>271.3195288431418</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>410.5500334608165</v>
+        <v>215.5595024171033</v>
       </c>
       <c r="C35" t="n">
-        <v>410.5500334608165</v>
+        <v>215.5595024171033</v>
       </c>
       <c r="D35" t="n">
-        <v>306.875782586873</v>
+        <v>215.5595024171033</v>
       </c>
       <c r="E35" t="n">
-        <v>203.2015317129294</v>
+        <v>111.8852515431598</v>
       </c>
       <c r="F35" t="n">
-        <v>99.52728083898585</v>
+        <v>111.8852515431598</v>
       </c>
       <c r="G35" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="H35" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I35" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J35" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K35" t="n">
-        <v>8.211000669216331</v>
+        <v>109.8221339507683</v>
       </c>
       <c r="L35" t="n">
-        <v>16.05657832410927</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M35" t="n">
-        <v>117.6677116056614</v>
+        <v>308.9389001792642</v>
       </c>
       <c r="N35" t="n">
-        <v>219.2788448872134</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="O35" t="n">
-        <v>320.8899781687655</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="P35" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q35" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R35" t="n">
-        <v>410.5500334608165</v>
+        <v>353.4692881835668</v>
       </c>
       <c r="S35" t="n">
-        <v>410.5500334608165</v>
+        <v>353.4692881835668</v>
       </c>
       <c r="T35" t="n">
-        <v>410.5500334608165</v>
+        <v>353.4692881835668</v>
       </c>
       <c r="U35" t="n">
-        <v>410.5500334608165</v>
+        <v>353.4692881835668</v>
       </c>
       <c r="V35" t="n">
-        <v>410.5500334608165</v>
+        <v>319.2337532910468</v>
       </c>
       <c r="W35" t="n">
-        <v>410.5500334608165</v>
+        <v>215.5595024171033</v>
       </c>
       <c r="X35" t="n">
-        <v>410.5500334608165</v>
+        <v>215.5595024171033</v>
       </c>
       <c r="Y35" t="n">
-        <v>410.5500334608165</v>
+        <v>215.5595024171033</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>52.63962394854751</v>
+        <v>124.0863893016515</v>
       </c>
       <c r="C36" t="n">
-        <v>52.63962394854751</v>
+        <v>43.93556215857775</v>
       </c>
       <c r="D36" t="n">
-        <v>52.63962394854751</v>
+        <v>43.93556215857775</v>
       </c>
       <c r="E36" t="n">
-        <v>52.63962394854751</v>
+        <v>43.93556215857775</v>
       </c>
       <c r="F36" t="n">
-        <v>52.63962394854751</v>
+        <v>43.93556215857775</v>
       </c>
       <c r="G36" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="H36" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I36" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J36" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K36" t="n">
-        <v>36.32207510283094</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="L36" t="n">
-        <v>137.933208384383</v>
+        <v>109.8221339507683</v>
       </c>
       <c r="M36" t="n">
-        <v>239.5443416659351</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="N36" t="n">
-        <v>341.1554749474872</v>
+        <v>313.0444005138724</v>
       </c>
       <c r="O36" t="n">
-        <v>341.1554749474872</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="P36" t="n">
-        <v>341.1554749474872</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R36" t="n">
-        <v>403.6827061517556</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S36" t="n">
-        <v>403.6827061517556</v>
+        <v>331.4348910495385</v>
       </c>
       <c r="T36" t="n">
-        <v>300.008455277812</v>
+        <v>227.760640175595</v>
       </c>
       <c r="U36" t="n">
-        <v>196.3342044038685</v>
+        <v>227.760640175595</v>
       </c>
       <c r="V36" t="n">
-        <v>196.3342044038685</v>
+        <v>227.760640175595</v>
       </c>
       <c r="W36" t="n">
-        <v>196.3342044038685</v>
+        <v>124.0863893016515</v>
       </c>
       <c r="X36" t="n">
-        <v>92.65995352992489</v>
+        <v>124.0863893016515</v>
       </c>
       <c r="Y36" t="n">
-        <v>92.65995352992489</v>
+        <v>124.0863893016515</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>324.2809473873338</v>
+        <v>140.4931089534106</v>
       </c>
       <c r="C37" t="n">
-        <v>324.2809473873338</v>
+        <v>140.4931089534106</v>
       </c>
       <c r="D37" t="n">
-        <v>268.4665101130514</v>
+        <v>140.4931089534106</v>
       </c>
       <c r="E37" t="n">
-        <v>268.4665101130514</v>
+        <v>140.4931089534106</v>
       </c>
       <c r="F37" t="n">
-        <v>215.8787647531944</v>
+        <v>140.4931089534106</v>
       </c>
       <c r="G37" t="n">
         <v>140.4931089534106</v>
@@ -7092,55 +7092,55 @@
         <v>70.92948027586836</v>
       </c>
       <c r="I37" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J37" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K37" t="n">
-        <v>78.58979207709835</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="L37" t="n">
-        <v>180.2009253586504</v>
+        <v>35.52512567692931</v>
       </c>
       <c r="M37" t="n">
-        <v>245.6633786864018</v>
+        <v>110.4712394136331</v>
       </c>
       <c r="N37" t="n">
-        <v>289.354229341838</v>
+        <v>212.0823726951851</v>
       </c>
       <c r="O37" t="n">
-        <v>313.6935059767374</v>
+        <v>313.6935059767371</v>
       </c>
       <c r="P37" t="n">
-        <v>403.4248679644879</v>
+        <v>403.4248679644877</v>
       </c>
       <c r="Q37" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R37" t="n">
-        <v>325.7680018845572</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S37" t="n">
-        <v>325.7680018845572</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T37" t="n">
-        <v>324.2809473873338</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="U37" t="n">
-        <v>324.2809473873338</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V37" t="n">
-        <v>324.2809473873338</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="W37" t="n">
-        <v>324.2809473873338</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="X37" t="n">
-        <v>324.2809473873338</v>
+        <v>140.4931089534106</v>
       </c>
       <c r="Y37" t="n">
-        <v>324.2809473873338</v>
+        <v>140.4931089534106</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99.52728083898585</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="C38" t="n">
-        <v>99.52728083898585</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="D38" t="n">
-        <v>99.52728083898585</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="E38" t="n">
-        <v>99.52728083898585</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="F38" t="n">
-        <v>99.52728083898585</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="G38" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="H38" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I38" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J38" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K38" t="n">
-        <v>16.05657832410927</v>
+        <v>105.7166336161602</v>
       </c>
       <c r="L38" t="n">
-        <v>117.6677116056614</v>
+        <v>207.3277668977122</v>
       </c>
       <c r="M38" t="n">
-        <v>219.2788448872134</v>
+        <v>308.9389001792642</v>
       </c>
       <c r="N38" t="n">
-        <v>320.8899781687655</v>
+        <v>308.9389001792642</v>
       </c>
       <c r="O38" t="n">
-        <v>320.8899781687655</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="P38" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q38" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R38" t="n">
-        <v>410.5500334608165</v>
+        <v>353.4692881835668</v>
       </c>
       <c r="S38" t="n">
-        <v>306.875782586873</v>
+        <v>249.7950373096234</v>
       </c>
       <c r="T38" t="n">
-        <v>203.2015317129294</v>
+        <v>146.1207864356799</v>
       </c>
       <c r="U38" t="n">
-        <v>99.52728083898585</v>
+        <v>42.44653556173635</v>
       </c>
       <c r="V38" t="n">
-        <v>99.52728083898585</v>
+        <v>42.44653556173635</v>
       </c>
       <c r="W38" t="n">
-        <v>99.52728083898585</v>
+        <v>42.44653556173635</v>
       </c>
       <c r="X38" t="n">
-        <v>99.52728083898585</v>
+        <v>42.44653556173635</v>
       </c>
       <c r="Y38" t="n">
-        <v>99.52728083898585</v>
+        <v>42.44653556173635</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>43.30592711057591</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="C39" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="D39" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="E39" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="F39" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="G39" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="H39" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I39" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J39" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K39" t="n">
-        <v>105.7166336161602</v>
+        <v>109.8221339507683</v>
       </c>
       <c r="L39" t="n">
-        <v>105.7166336161602</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M39" t="n">
-        <v>207.3277668977123</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="N39" t="n">
-        <v>308.9389001792644</v>
+        <v>239.544341665935</v>
       </c>
       <c r="O39" t="n">
-        <v>308.9389001792644</v>
+        <v>239.544341665935</v>
       </c>
       <c r="P39" t="n">
-        <v>410.5500334608165</v>
+        <v>341.155474947487</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R39" t="n">
-        <v>403.6827061517556</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S39" t="n">
-        <v>324.5675637404777</v>
+        <v>331.4348910495385</v>
       </c>
       <c r="T39" t="n">
-        <v>324.5675637404777</v>
+        <v>331.4348910495385</v>
       </c>
       <c r="U39" t="n">
-        <v>324.5675637404777</v>
+        <v>227.760640175595</v>
       </c>
       <c r="V39" t="n">
-        <v>324.5675637404777</v>
+        <v>124.0863893016515</v>
       </c>
       <c r="W39" t="n">
-        <v>324.5675637404777</v>
+        <v>20.41213842770796</v>
       </c>
       <c r="X39" t="n">
-        <v>220.8933128665342</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="Y39" t="n">
-        <v>117.2190619925906</v>
+        <v>8.211000669216325</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8.211000669216331</v>
+        <v>70.92948027586836</v>
       </c>
       <c r="C40" t="n">
-        <v>8.211000669216331</v>
+        <v>70.92948027586836</v>
       </c>
       <c r="D40" t="n">
-        <v>8.211000669216331</v>
+        <v>70.92948027586836</v>
       </c>
       <c r="E40" t="n">
-        <v>8.211000669216331</v>
+        <v>70.92948027586836</v>
       </c>
       <c r="F40" t="n">
-        <v>8.211000669216331</v>
+        <v>70.92948027586836</v>
       </c>
       <c r="G40" t="n">
-        <v>8.211000669216331</v>
+        <v>70.92948027586836</v>
       </c>
       <c r="H40" t="n">
-        <v>8.211000669216331</v>
+        <v>70.92948027586836</v>
       </c>
       <c r="I40" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J40" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K40" t="n">
-        <v>78.58979207709835</v>
+        <v>78.58979207709834</v>
       </c>
       <c r="L40" t="n">
-        <v>144.0522454048497</v>
+        <v>180.2009253586504</v>
       </c>
       <c r="M40" t="n">
-        <v>245.6633786864018</v>
+        <v>219.3889635508725</v>
       </c>
       <c r="N40" t="n">
-        <v>289.354229341838</v>
+        <v>263.0798142063088</v>
       </c>
       <c r="O40" t="n">
-        <v>313.6935059767374</v>
+        <v>313.6935059767371</v>
       </c>
       <c r="P40" t="n">
-        <v>403.4248679644879</v>
+        <v>403.4248679644877</v>
       </c>
       <c r="Q40" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R40" t="n">
-        <v>325.7680018845572</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S40" t="n">
-        <v>222.0937510106136</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T40" t="n">
-        <v>222.0937510106136</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="U40" t="n">
-        <v>222.0937510106136</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V40" t="n">
-        <v>222.0937510106136</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="W40" t="n">
-        <v>118.4195001366701</v>
+        <v>99.52728083898579</v>
       </c>
       <c r="X40" t="n">
-        <v>14.7452492627265</v>
+        <v>70.92948027586836</v>
       </c>
       <c r="Y40" t="n">
-        <v>14.7452492627265</v>
+        <v>70.92948027586836</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>306.875782586873</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="C41" t="n">
-        <v>306.875782586873</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="D41" t="n">
-        <v>306.875782586873</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="E41" t="n">
-        <v>215.5595024171035</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="F41" t="n">
-        <v>111.8852515431599</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="G41" t="n">
-        <v>111.8852515431599</v>
+        <v>99.52728083898579</v>
       </c>
       <c r="H41" t="n">
-        <v>8.211000669216331</v>
+        <v>99.52728083898579</v>
       </c>
       <c r="I41" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J41" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K41" t="n">
-        <v>16.05657832410927</v>
+        <v>109.8221339507683</v>
       </c>
       <c r="L41" t="n">
-        <v>117.6677116056614</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M41" t="n">
-        <v>219.2788448872134</v>
+        <v>219.2788448872133</v>
       </c>
       <c r="N41" t="n">
-        <v>320.8899781687655</v>
+        <v>320.8899781687653</v>
       </c>
       <c r="O41" t="n">
-        <v>320.8899781687655</v>
+        <v>320.8899781687653</v>
       </c>
       <c r="P41" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q41" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R41" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S41" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T41" t="n">
-        <v>306.875782586873</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="U41" t="n">
-        <v>306.875782586873</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V41" t="n">
-        <v>306.875782586873</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="W41" t="n">
-        <v>306.875782586873</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="X41" t="n">
-        <v>306.875782586873</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="Y41" t="n">
-        <v>306.875782586873</v>
+        <v>306.8757825868728</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8.211000669216331</v>
+        <v>211.071716175552</v>
       </c>
       <c r="C42" t="n">
-        <v>8.211000669216331</v>
+        <v>211.071716175552</v>
       </c>
       <c r="D42" t="n">
-        <v>8.211000669216331</v>
+        <v>111.8852515431598</v>
       </c>
       <c r="E42" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="F42" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="G42" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="H42" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I42" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J42" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K42" t="n">
-        <v>8.211000669216331</v>
+        <v>109.8221339507683</v>
       </c>
       <c r="L42" t="n">
-        <v>109.8221339507684</v>
+        <v>109.8221339507683</v>
       </c>
       <c r="M42" t="n">
-        <v>211.4332672323205</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="N42" t="n">
-        <v>211.4332672323205</v>
+        <v>313.0444005138724</v>
       </c>
       <c r="O42" t="n">
-        <v>239.5443416659351</v>
+        <v>341.155474947487</v>
       </c>
       <c r="P42" t="n">
-        <v>341.1554749474872</v>
+        <v>341.155474947487</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R42" t="n">
-        <v>410.5500334608165</v>
+        <v>359.1284490425611</v>
       </c>
       <c r="S42" t="n">
-        <v>410.5500334608165</v>
+        <v>314.7459670494955</v>
       </c>
       <c r="T42" t="n">
-        <v>306.875782586873</v>
+        <v>314.7459670494955</v>
       </c>
       <c r="U42" t="n">
-        <v>215.5595024171035</v>
+        <v>314.7459670494955</v>
       </c>
       <c r="V42" t="n">
-        <v>111.8852515431599</v>
+        <v>314.7459670494955</v>
       </c>
       <c r="W42" t="n">
-        <v>8.211000669216331</v>
+        <v>211.071716175552</v>
       </c>
       <c r="X42" t="n">
-        <v>8.211000669216331</v>
+        <v>211.071716175552</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.211000669216331</v>
+        <v>211.071716175552</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>215.5595024171035</v>
+        <v>165.9171098208849</v>
       </c>
       <c r="C43" t="n">
-        <v>215.5595024171035</v>
+        <v>165.9171098208849</v>
       </c>
       <c r="D43" t="n">
-        <v>215.5595024171035</v>
+        <v>165.9171098208849</v>
       </c>
       <c r="E43" t="n">
-        <v>215.5595024171035</v>
+        <v>165.9171098208849</v>
       </c>
       <c r="F43" t="n">
-        <v>215.5595024171035</v>
+        <v>165.9171098208849</v>
       </c>
       <c r="G43" t="n">
-        <v>111.8852515431599</v>
+        <v>165.9171098208849</v>
       </c>
       <c r="H43" t="n">
-        <v>8.211000669216331</v>
+        <v>156.439508652354</v>
       </c>
       <c r="I43" t="n">
-        <v>8.211000669216331</v>
+        <v>52.76525777841054</v>
       </c>
       <c r="J43" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K43" t="n">
-        <v>34.92216468437715</v>
+        <v>34.92216468437711</v>
       </c>
       <c r="L43" t="n">
-        <v>110.994250614875</v>
+        <v>110.9942506148749</v>
       </c>
       <c r="M43" t="n">
-        <v>198.940249729882</v>
+        <v>198.9402497298818</v>
       </c>
       <c r="N43" t="n">
-        <v>291.3890613081031</v>
+        <v>291.3890613081028</v>
       </c>
       <c r="O43" t="n">
-        <v>364.4862988657871</v>
+        <v>364.4862988657869</v>
       </c>
       <c r="P43" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q43" t="n">
-        <v>410.5500334608165</v>
+        <v>373.2656115687719</v>
       </c>
       <c r="R43" t="n">
-        <v>410.5500334608165</v>
+        <v>269.5913606948284</v>
       </c>
       <c r="S43" t="n">
-        <v>410.5500334608165</v>
+        <v>269.5913606948284</v>
       </c>
       <c r="T43" t="n">
-        <v>410.5500334608165</v>
+        <v>269.5913606948284</v>
       </c>
       <c r="U43" t="n">
-        <v>410.5500334608165</v>
+        <v>269.5913606948284</v>
       </c>
       <c r="V43" t="n">
-        <v>410.5500334608165</v>
+        <v>269.5913606948284</v>
       </c>
       <c r="W43" t="n">
-        <v>410.5500334608165</v>
+        <v>165.9171098208849</v>
       </c>
       <c r="X43" t="n">
-        <v>306.875782586873</v>
+        <v>165.9171098208849</v>
       </c>
       <c r="Y43" t="n">
-        <v>215.5595024171035</v>
+        <v>165.9171098208849</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>319.233753291047</v>
+        <v>205.2407802004292</v>
       </c>
       <c r="C44" t="n">
-        <v>215.5595024171035</v>
+        <v>205.2407802004292</v>
       </c>
       <c r="D44" t="n">
-        <v>215.5595024171035</v>
+        <v>205.2407802004292</v>
       </c>
       <c r="E44" t="n">
-        <v>215.5595024171035</v>
+        <v>205.2407802004292</v>
       </c>
       <c r="F44" t="n">
-        <v>215.5595024171035</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="G44" t="n">
-        <v>215.5595024171035</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="H44" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I44" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J44" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K44" t="n">
-        <v>109.8221339507684</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="L44" t="n">
-        <v>211.4332672323205</v>
+        <v>16.05657832410927</v>
       </c>
       <c r="M44" t="n">
-        <v>313.0444005138726</v>
+        <v>117.6677116056613</v>
       </c>
       <c r="N44" t="n">
-        <v>313.0444005138726</v>
+        <v>219.2788448872134</v>
       </c>
       <c r="O44" t="n">
-        <v>320.8899781687655</v>
+        <v>320.8899781687654</v>
       </c>
       <c r="P44" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q44" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R44" t="n">
-        <v>410.5500334608165</v>
+        <v>308.9150310743728</v>
       </c>
       <c r="S44" t="n">
-        <v>319.233753291047</v>
+        <v>205.2407802004292</v>
       </c>
       <c r="T44" t="n">
-        <v>319.233753291047</v>
+        <v>205.2407802004292</v>
       </c>
       <c r="U44" t="n">
-        <v>319.233753291047</v>
+        <v>205.2407802004292</v>
       </c>
       <c r="V44" t="n">
-        <v>319.233753291047</v>
+        <v>205.2407802004292</v>
       </c>
       <c r="W44" t="n">
-        <v>319.233753291047</v>
+        <v>205.2407802004292</v>
       </c>
       <c r="X44" t="n">
-        <v>319.233753291047</v>
+        <v>205.2407802004292</v>
       </c>
       <c r="Y44" t="n">
-        <v>319.233753291047</v>
+        <v>205.2407802004292</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>200.8681319316853</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="C45" t="n">
-        <v>200.8681319316853</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="D45" t="n">
-        <v>200.8681319316853</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="E45" t="n">
-        <v>97.19388105774172</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="F45" t="n">
-        <v>97.19388105774172</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="G45" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H45" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I45" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J45" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K45" t="n">
-        <v>8.211000669216331</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L45" t="n">
-        <v>105.7166336161602</v>
+        <v>137.933208384383</v>
       </c>
       <c r="M45" t="n">
-        <v>207.3277668977123</v>
+        <v>239.5443416659351</v>
       </c>
       <c r="N45" t="n">
-        <v>308.9389001792644</v>
+        <v>341.1554749474871</v>
       </c>
       <c r="O45" t="n">
-        <v>410.5500334608165</v>
+        <v>341.1554749474871</v>
       </c>
       <c r="P45" t="n">
-        <v>410.5500334608165</v>
+        <v>341.1554749474871</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R45" t="n">
-        <v>359.1284490425613</v>
+        <v>359.1284490425612</v>
       </c>
       <c r="S45" t="n">
-        <v>255.4541981686178</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="T45" t="n">
-        <v>255.4541981686178</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="U45" t="n">
-        <v>255.4541981686178</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="V45" t="n">
-        <v>255.4541981686178</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="W45" t="n">
-        <v>200.8681319316853</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="X45" t="n">
-        <v>200.8681319316853</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="Y45" t="n">
-        <v>200.8681319316853</v>
+        <v>111.8852515431599</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8.211000669216331</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="C46" t="n">
-        <v>8.211000669216331</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="D46" t="n">
-        <v>8.211000669216331</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="E46" t="n">
-        <v>8.211000669216331</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="F46" t="n">
-        <v>8.211000669216331</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="G46" t="n">
-        <v>8.211000669216331</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="H46" t="n">
-        <v>8.211000669216331</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="I46" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J46" t="n">
-        <v>8.211000669216331</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K46" t="n">
-        <v>34.92216468437715</v>
+        <v>34.92216468437709</v>
       </c>
       <c r="L46" t="n">
-        <v>110.994250614875</v>
+        <v>110.9942506148749</v>
       </c>
       <c r="M46" t="n">
-        <v>198.940249729882</v>
+        <v>198.9402497298818</v>
       </c>
       <c r="N46" t="n">
-        <v>291.3890613081031</v>
+        <v>291.389061308103</v>
       </c>
       <c r="O46" t="n">
-        <v>364.4862988657871</v>
+        <v>364.486298865787</v>
       </c>
       <c r="P46" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q46" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R46" t="n">
-        <v>410.5500334608165</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="S46" t="n">
-        <v>410.5500334608165</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="T46" t="n">
-        <v>306.875782586873</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="U46" t="n">
-        <v>203.2015317129294</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="V46" t="n">
-        <v>111.8852515431599</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="W46" t="n">
-        <v>8.211000669216331</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="X46" t="n">
-        <v>8.211000669216331</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.211000669216331</v>
+        <v>215.5595024171034</v>
       </c>
     </row>
   </sheetData>
@@ -9640,22 +9640,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>322.7273594101846</v>
       </c>
       <c r="L23" t="n">
-        <v>338.4039233351913</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
         <v>332.9837415924768</v>
       </c>
       <c r="N23" t="n">
-        <v>237.3378895106242</v>
+        <v>332.050571961795</v>
       </c>
       <c r="O23" t="n">
-        <v>332.7357197868909</v>
+        <v>328.5887497519331</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>240.4789473395631</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>241.1918881450783</v>
@@ -9731,7 +9731,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>245.2337528096485</v>
       </c>
       <c r="P24" t="n">
         <v>236.6119157795343</v>
@@ -9877,22 +9877,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>322.7273594101846</v>
       </c>
       <c r="L26" t="n">
-        <v>243.6912408840205</v>
+        <v>334.2569533002335</v>
       </c>
       <c r="M26" t="n">
-        <v>332.9837415924768</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
         <v>332.050571961795</v>
       </c>
       <c r="O26" t="n">
-        <v>332.7357197868909</v>
+        <v>332.7357197868908</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9968,13 +9968,13 @@
         <v>233.9792204485374</v>
       </c>
       <c r="O27" t="n">
-        <v>170.9912691248632</v>
+        <v>241.0867827746908</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10114,19 +10114,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>318.5803893752269</v>
+        <v>322.7273594101846</v>
       </c>
       <c r="L29" t="n">
         <v>338.4039233351913</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>332.9837415924768</v>
       </c>
       <c r="N29" t="n">
-        <v>332.050571961795</v>
+        <v>327.9036019268373</v>
       </c>
       <c r="O29" t="n">
-        <v>332.7357197868909</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
         <v>231.2329957552695</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>240.4789473395631</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>241.1918881450783</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>244.7715422872224</v>
+        <v>170.5290586024371</v>
       </c>
       <c r="N30" t="n">
-        <v>159.7367367637521</v>
+        <v>233.9792204485374</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>245.2337528096485</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>236.6119157795343</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10351,22 +10351,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>322.7273594101846</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>243.6912408840205</v>
+        <v>334.2569533002335</v>
       </c>
       <c r="M32" t="n">
-        <v>230.3462332272727</v>
+        <v>332.9837415924768</v>
       </c>
       <c r="N32" t="n">
         <v>332.050571961795</v>
       </c>
       <c r="O32" t="n">
-        <v>332.7357197868909</v>
+        <v>332.7357197868908</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10433,22 +10433,22 @@
         <v>240.4789473395631</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>241.1918881450783</v>
       </c>
       <c r="M33" t="n">
-        <v>244.7715422872224</v>
+        <v>240.6245722522647</v>
       </c>
       <c r="N33" t="n">
-        <v>233.9792204485374</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>170.9912691248632</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>236.6119157795343</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,22 +10588,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>322.7273594101846</v>
       </c>
       <c r="L35" t="n">
-        <v>243.6912408840205</v>
+        <v>338.4039233351913</v>
       </c>
       <c r="M35" t="n">
-        <v>332.9837415924769</v>
+        <v>328.8367715575191</v>
       </c>
       <c r="N35" t="n">
-        <v>332.0505719617951</v>
+        <v>332.050571961795</v>
       </c>
       <c r="O35" t="n">
-        <v>332.7357197868909</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>166.2364636547778</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>241.1918881450783</v>
@@ -10679,13 +10679,13 @@
         <v>233.9792204485374</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>241.0867827746908</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>228.0146769590138</v>
+        <v>318.5803893752268</v>
       </c>
       <c r="L38" t="n">
-        <v>338.4039233351914</v>
+        <v>338.4039233351913</v>
       </c>
       <c r="M38" t="n">
-        <v>332.9837415924769</v>
+        <v>332.9837415924768</v>
       </c>
       <c r="N38" t="n">
-        <v>332.0505719617951</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>332.7357197868908</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>236.3319773046053</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>241.1918881450783</v>
       </c>
       <c r="M39" t="n">
-        <v>244.7715422872224</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>233.9792204485374</v>
+        <v>159.7367367637521</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>236.6119157795344</v>
+        <v>236.6119157795343</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,16 +11062,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>228.0146769590138</v>
+        <v>322.7273594101846</v>
       </c>
       <c r="L41" t="n">
-        <v>338.4039233351914</v>
+        <v>338.4039233351913</v>
       </c>
       <c r="M41" t="n">
-        <v>332.9837415924769</v>
+        <v>238.271059141306</v>
       </c>
       <c r="N41" t="n">
-        <v>332.0505719617951</v>
+        <v>332.050571961795</v>
       </c>
       <c r="O41" t="n">
         <v>230.0982114216867</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L42" t="n">
-        <v>241.1918881450783</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>244.7715422872224</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>233.9792204485374</v>
       </c>
       <c r="O42" t="n">
         <v>170.9912691248632</v>
       </c>
       <c r="P42" t="n">
-        <v>236.6119157795344</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11299,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>322.7273594101847</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>338.4039233351914</v>
+        <v>243.6912408840205</v>
       </c>
       <c r="M44" t="n">
-        <v>332.9837415924769</v>
+        <v>332.9837415924768</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>332.050571961795</v>
       </c>
       <c r="O44" t="n">
-        <v>238.02303733572</v>
+        <v>332.7357197868909</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L45" t="n">
-        <v>237.0449181101205</v>
+        <v>166.949404460293</v>
       </c>
       <c r="M45" t="n">
         <v>244.7715422872224</v>
@@ -11390,13 +11390,13 @@
         <v>233.9792204485374</v>
       </c>
       <c r="O45" t="n">
-        <v>245.2337528096486</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>291.4300473713179</v>
+        <v>291.430047371318</v>
       </c>
       <c r="C17" t="n">
-        <v>273.9690974788449</v>
+        <v>273.969097478845</v>
       </c>
       <c r="D17" t="n">
-        <v>263.3792473285203</v>
+        <v>263.3792473285204</v>
       </c>
       <c r="E17" t="n">
-        <v>290.6265757800991</v>
+        <v>290.6265757800992</v>
       </c>
       <c r="F17" t="n">
         <v>315.5722514495488</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9989432229724</v>
+        <v>323.9989432229725</v>
       </c>
       <c r="H17" t="n">
-        <v>248.1710078236045</v>
+        <v>248.1710078236046</v>
       </c>
       <c r="I17" t="n">
         <v>119.1720952782433</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>58.56532364898703</v>
+        <v>58.56532364898709</v>
       </c>
       <c r="S17" t="n">
         <v>117.7162752940827</v>
       </c>
       <c r="T17" t="n">
-        <v>131.7920552719687</v>
+        <v>131.7920552719688</v>
       </c>
       <c r="U17" t="n">
-        <v>160.0418586156738</v>
+        <v>160.0418586156739</v>
       </c>
       <c r="V17" t="n">
         <v>236.4484641779723</v>
@@ -23800,7 +23800,7 @@
         <v>278.4273063863064</v>
       </c>
       <c r="Y17" t="n">
-        <v>294.9341443638909</v>
+        <v>294.934144363891</v>
       </c>
     </row>
     <row r="18">
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>75.22938935770469</v>
+        <v>75.22938935770475</v>
       </c>
       <c r="C18" t="n">
-        <v>81.40470469615309</v>
+        <v>81.40470469615315</v>
       </c>
       <c r="D18" t="n">
-        <v>56.1412712724761</v>
+        <v>56.14127127247616</v>
       </c>
       <c r="E18" t="n">
-        <v>66.34128616323829</v>
+        <v>66.34128616323835</v>
       </c>
       <c r="F18" t="n">
-        <v>53.76541810122123</v>
+        <v>53.76541810122129</v>
       </c>
       <c r="G18" t="n">
-        <v>46.03972287104799</v>
+        <v>46.03972287104804</v>
       </c>
       <c r="H18" t="n">
-        <v>20.93164994433381</v>
+        <v>20.93164994433387</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.854039860480484</v>
+        <v>8.85403986048054</v>
       </c>
       <c r="S18" t="n">
-        <v>80.37937681167517</v>
+        <v>80.37937681167523</v>
       </c>
       <c r="T18" t="n">
         <v>108.860934402659</v>
@@ -23870,16 +23870,16 @@
         <v>134.6375877888122</v>
       </c>
       <c r="V18" t="n">
-        <v>141.4967928572626</v>
+        <v>141.4967928572627</v>
       </c>
       <c r="W18" t="n">
         <v>160.391188868757</v>
       </c>
       <c r="X18" t="n">
-        <v>114.4691909113148</v>
+        <v>114.4691909113149</v>
       </c>
       <c r="Y18" t="n">
-        <v>114.3789014851417</v>
+        <v>114.3789014851418</v>
       </c>
     </row>
     <row r="19">
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.52818588977465</v>
+        <v>88.5281858897747</v>
       </c>
       <c r="C19" t="n">
-        <v>75.94302680646518</v>
+        <v>75.94302680646524</v>
       </c>
       <c r="D19" t="n">
-        <v>57.31167872604971</v>
+        <v>57.31167872604976</v>
       </c>
       <c r="E19" t="n">
-        <v>55.13016835440652</v>
+        <v>55.13016835440658</v>
       </c>
       <c r="F19" t="n">
-        <v>54.1172537307686</v>
+        <v>54.11725373076865</v>
       </c>
       <c r="G19" t="n">
-        <v>76.68718506629611</v>
+        <v>76.68718506629617</v>
       </c>
       <c r="H19" t="n">
-        <v>70.92337821527693</v>
+        <v>70.92337821527698</v>
       </c>
       <c r="I19" t="n">
-        <v>64.14668063509563</v>
+        <v>64.14668063509569</v>
       </c>
       <c r="J19" t="n">
-        <v>2.055385824510125</v>
+        <v>2.055385824510182</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>85.98959708500684</v>
+        <v>85.98959708500689</v>
       </c>
       <c r="S19" t="n">
-        <v>132.7128037448096</v>
+        <v>132.7128037448097</v>
       </c>
       <c r="T19" t="n">
-        <v>136.6417951361188</v>
+        <v>136.6417951361189</v>
       </c>
       <c r="U19" t="n">
-        <v>195.0152350643282</v>
+        <v>195.0152350643283</v>
       </c>
       <c r="V19" t="n">
         <v>160.8338490316654</v>
@@ -23955,10 +23955,10 @@
         <v>195.2192040444284</v>
       </c>
       <c r="X19" t="n">
-        <v>134.4058610968745</v>
+        <v>134.4058610968746</v>
       </c>
       <c r="Y19" t="n">
-        <v>127.2808590599321</v>
+        <v>127.2808590599322</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>291.4300473713179</v>
+        <v>291.430047371318</v>
       </c>
       <c r="C20" t="n">
-        <v>273.9690974788449</v>
+        <v>273.969097478845</v>
       </c>
       <c r="D20" t="n">
-        <v>263.3792473285203</v>
+        <v>263.3792473285204</v>
       </c>
       <c r="E20" t="n">
-        <v>290.6265757800991</v>
+        <v>290.6265757800992</v>
       </c>
       <c r="F20" t="n">
         <v>315.5722514495488</v>
       </c>
       <c r="G20" t="n">
-        <v>323.9989432229724</v>
+        <v>323.9989432229725</v>
       </c>
       <c r="H20" t="n">
-        <v>248.1710078236045</v>
+        <v>248.1710078236046</v>
       </c>
       <c r="I20" t="n">
         <v>119.1720952782433</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>58.56532364898703</v>
+        <v>58.56532364898709</v>
       </c>
       <c r="S20" t="n">
         <v>117.7162752940827</v>
       </c>
       <c r="T20" t="n">
-        <v>131.7920552719687</v>
+        <v>131.7920552719688</v>
       </c>
       <c r="U20" t="n">
-        <v>160.0418586156738</v>
+        <v>160.0418586156739</v>
       </c>
       <c r="V20" t="n">
         <v>236.4484641779723</v>
@@ -24037,7 +24037,7 @@
         <v>278.4273063863064</v>
       </c>
       <c r="Y20" t="n">
-        <v>294.9341443638909</v>
+        <v>294.934144363891</v>
       </c>
     </row>
     <row r="21">
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.22938935770469</v>
+        <v>75.22938935770475</v>
       </c>
       <c r="C21" t="n">
-        <v>81.40470469615309</v>
+        <v>81.40470469615315</v>
       </c>
       <c r="D21" t="n">
-        <v>56.1412712724761</v>
+        <v>56.14127127247616</v>
       </c>
       <c r="E21" t="n">
-        <v>66.34128616323829</v>
+        <v>66.34128616323835</v>
       </c>
       <c r="F21" t="n">
-        <v>53.76541810122123</v>
+        <v>53.76541810122129</v>
       </c>
       <c r="G21" t="n">
-        <v>46.03972287104799</v>
+        <v>46.03972287104804</v>
       </c>
       <c r="H21" t="n">
-        <v>20.93164994433381</v>
+        <v>20.93164994433387</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.854039860480484</v>
+        <v>8.85403986048054</v>
       </c>
       <c r="S21" t="n">
-        <v>80.37937681167517</v>
+        <v>80.37937681167523</v>
       </c>
       <c r="T21" t="n">
         <v>108.860934402659</v>
@@ -24107,16 +24107,16 @@
         <v>134.6375877888122</v>
       </c>
       <c r="V21" t="n">
-        <v>141.4967928572626</v>
+        <v>141.4967928572627</v>
       </c>
       <c r="W21" t="n">
         <v>160.391188868757</v>
       </c>
       <c r="X21" t="n">
-        <v>114.4691909113148</v>
+        <v>114.4691909113149</v>
       </c>
       <c r="Y21" t="n">
-        <v>114.3789014851417</v>
+        <v>114.3789014851418</v>
       </c>
     </row>
     <row r="22">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.52818588977465</v>
+        <v>88.5281858897747</v>
       </c>
       <c r="C22" t="n">
-        <v>75.94302680646518</v>
+        <v>75.94302680646524</v>
       </c>
       <c r="D22" t="n">
-        <v>57.31167872604971</v>
+        <v>57.31167872604976</v>
       </c>
       <c r="E22" t="n">
-        <v>55.13016835440652</v>
+        <v>55.13016835440658</v>
       </c>
       <c r="F22" t="n">
-        <v>54.1172537307686</v>
+        <v>54.11725373076865</v>
       </c>
       <c r="G22" t="n">
-        <v>76.68718506629611</v>
+        <v>76.68718506629617</v>
       </c>
       <c r="H22" t="n">
-        <v>70.92337821527693</v>
+        <v>70.92337821527698</v>
       </c>
       <c r="I22" t="n">
-        <v>64.14668063509563</v>
+        <v>64.14668063509569</v>
       </c>
       <c r="J22" t="n">
-        <v>2.055385824510125</v>
+        <v>2.055385824510182</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>85.98959708500684</v>
+        <v>85.98959708500689</v>
       </c>
       <c r="S22" t="n">
-        <v>132.7128037448096</v>
+        <v>132.7128037448097</v>
       </c>
       <c r="T22" t="n">
-        <v>136.6417951361188</v>
+        <v>136.6417951361189</v>
       </c>
       <c r="U22" t="n">
-        <v>195.0152350643282</v>
+        <v>195.0152350643283</v>
       </c>
       <c r="V22" t="n">
         <v>160.8338490316654</v>
@@ -24192,10 +24192,10 @@
         <v>195.2192040444284</v>
       </c>
       <c r="X22" t="n">
-        <v>134.4058610968745</v>
+        <v>134.4058610968746</v>
       </c>
       <c r="Y22" t="n">
-        <v>127.2808590599321</v>
+        <v>127.2808590599322</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>291.4300473713179</v>
+        <v>291.430047371318</v>
       </c>
       <c r="C23" t="n">
-        <v>171.3315891136408</v>
+        <v>273.969097478845</v>
       </c>
       <c r="D23" t="n">
-        <v>160.7417389633162</v>
+        <v>263.3792473285204</v>
       </c>
       <c r="E23" t="n">
-        <v>290.6265757800991</v>
+        <v>290.6265757800992</v>
       </c>
       <c r="F23" t="n">
-        <v>315.5722514495488</v>
+        <v>212.9347430843448</v>
       </c>
       <c r="G23" t="n">
         <v>233.5958258549007</v>
       </c>
       <c r="H23" t="n">
-        <v>248.1710078236045</v>
+        <v>248.1710078236046</v>
       </c>
       <c r="I23" t="n">
-        <v>16.53458691303916</v>
+        <v>119.1720952782433</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>58.56532364898703</v>
+        <v>58.56532364898709</v>
       </c>
       <c r="S23" t="n">
         <v>117.7162752940827</v>
       </c>
       <c r="T23" t="n">
-        <v>131.7920552719687</v>
+        <v>29.15454690676469</v>
       </c>
       <c r="U23" t="n">
-        <v>160.0418586156738</v>
+        <v>160.0418586156739</v>
       </c>
       <c r="V23" t="n">
-        <v>236.4484641779723</v>
+        <v>133.8109558127682</v>
       </c>
       <c r="W23" t="n">
         <v>257.9371744252504</v>
@@ -24274,7 +24274,7 @@
         <v>278.4273063863064</v>
       </c>
       <c r="Y23" t="n">
-        <v>294.9341443638909</v>
+        <v>294.934144363891</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>75.22938935770469</v>
+        <v>75.22938935770475</v>
       </c>
       <c r="C24" t="n">
-        <v>81.40470469615309</v>
+        <v>81.40470469615315</v>
       </c>
       <c r="D24" t="n">
-        <v>56.1412712724761</v>
+        <v>56.14127127247616</v>
       </c>
       <c r="E24" t="n">
-        <v>66.34128616323829</v>
+        <v>66.34128616323835</v>
       </c>
       <c r="F24" t="n">
-        <v>53.76541810122123</v>
+        <v>53.76541810122129</v>
       </c>
       <c r="G24" t="n">
-        <v>46.03972287104799</v>
+        <v>46.03972287104804</v>
       </c>
       <c r="H24" t="n">
-        <v>20.93164994433381</v>
+        <v>20.93164994433387</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.854039860480484</v>
+        <v>8.85403986048054</v>
       </c>
       <c r="S24" t="n">
-        <v>80.37937681167517</v>
+        <v>80.37937681167523</v>
       </c>
       <c r="T24" t="n">
-        <v>18.45781703458718</v>
+        <v>18.45781703458724</v>
       </c>
       <c r="U24" t="n">
-        <v>32.00007942360807</v>
+        <v>134.6375877888122</v>
       </c>
       <c r="V24" t="n">
-        <v>38.85928449205852</v>
+        <v>38.85928449205861</v>
       </c>
       <c r="W24" t="n">
-        <v>160.391188868757</v>
+        <v>57.75368050355294</v>
       </c>
       <c r="X24" t="n">
-        <v>11.83168254611073</v>
+        <v>114.4691909113149</v>
       </c>
       <c r="Y24" t="n">
-        <v>114.3789014851417</v>
+        <v>11.7413931199377</v>
       </c>
     </row>
     <row r="25">
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.52818588977465</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>75.94302680646518</v>
+        <v>75.94302680646524</v>
       </c>
       <c r="D25" t="n">
-        <v>57.31167872604971</v>
+        <v>57.31167872604976</v>
       </c>
       <c r="E25" t="n">
-        <v>55.13016835440652</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>54.1172537307686</v>
+        <v>54.11725373076865</v>
       </c>
       <c r="G25" t="n">
-        <v>76.68718506629611</v>
+        <v>76.68718506629617</v>
       </c>
       <c r="H25" t="n">
-        <v>70.92337821527693</v>
+        <v>70.92337821527698</v>
       </c>
       <c r="I25" t="n">
-        <v>64.14668063509563</v>
+        <v>64.14668063509569</v>
       </c>
       <c r="J25" t="n">
-        <v>2.055385824510125</v>
+        <v>2.055385824510182</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>85.98959708500684</v>
+        <v>36.60732559591233</v>
       </c>
       <c r="S25" t="n">
-        <v>30.07529537960551</v>
+        <v>30.07529537960559</v>
       </c>
       <c r="T25" t="n">
-        <v>136.6417951361188</v>
+        <v>136.6417951361189</v>
       </c>
       <c r="U25" t="n">
-        <v>195.0152350643282</v>
+        <v>195.0152350643283</v>
       </c>
       <c r="V25" t="n">
-        <v>160.8338490316654</v>
+        <v>58.19634066646134</v>
       </c>
       <c r="W25" t="n">
-        <v>104.8160866763566</v>
+        <v>195.2192040444284</v>
       </c>
       <c r="X25" t="n">
-        <v>31.7683527316704</v>
+        <v>134.4058610968746</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.64335069472804</v>
+        <v>127.2808590599322</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>333.48337608491</v>
+        <v>333.4833760849101</v>
       </c>
       <c r="C26" t="n">
-        <v>316.022426192437</v>
+        <v>316.0224261924371</v>
       </c>
       <c r="D26" t="n">
-        <v>305.4325760421124</v>
+        <v>305.4325760421125</v>
       </c>
       <c r="E26" t="n">
-        <v>242.2767871256195</v>
+        <v>332.6799044936913</v>
       </c>
       <c r="F26" t="n">
-        <v>357.6255801631409</v>
+        <v>357.625580163141</v>
       </c>
       <c r="G26" t="n">
-        <v>366.0522719365645</v>
+        <v>366.0522719365646</v>
       </c>
       <c r="H26" t="n">
-        <v>290.2243365371966</v>
+        <v>290.2243365371967</v>
       </c>
       <c r="I26" t="n">
         <v>161.2254239918354</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>100.6186523625792</v>
+        <v>10.21553499450742</v>
       </c>
       <c r="S26" t="n">
-        <v>57.13209564247074</v>
+        <v>57.13209564247077</v>
       </c>
       <c r="T26" t="n">
-        <v>173.8453839855608</v>
+        <v>71.20787562035682</v>
       </c>
       <c r="U26" t="n">
-        <v>99.45767896406187</v>
+        <v>99.45767896406196</v>
       </c>
       <c r="V26" t="n">
         <v>278.5017928915644</v>
@@ -24508,7 +24508,7 @@
         <v>299.9905031388425</v>
       </c>
       <c r="X26" t="n">
-        <v>217.8431267346944</v>
+        <v>320.4806350998986</v>
       </c>
       <c r="Y26" t="n">
         <v>336.9874730774831</v>
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>117.2827180712968</v>
+        <v>117.2827180712969</v>
       </c>
       <c r="C27" t="n">
-        <v>28.61200766253765</v>
+        <v>123.4580334097453</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>56.23200449535857</v>
       </c>
       <c r="E27" t="n">
-        <v>108.3946148768304</v>
+        <v>5.75710651162639</v>
       </c>
       <c r="F27" t="n">
-        <v>95.81874681481337</v>
+        <v>95.81874681481339</v>
       </c>
       <c r="G27" t="n">
-        <v>88.09305158464012</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>62.98497865792595</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>40.14616727284456</v>
+        <v>40.14616727284459</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.90736857407262</v>
+        <v>50.90736857407265</v>
       </c>
       <c r="S27" t="n">
         <v>122.4327055252673</v>
       </c>
       <c r="T27" t="n">
-        <v>150.9142631162511</v>
+        <v>48.27675475104704</v>
       </c>
       <c r="U27" t="n">
         <v>176.6909165024043</v>
       </c>
       <c r="V27" t="n">
-        <v>183.5501215708547</v>
+        <v>183.5501215708548</v>
       </c>
       <c r="W27" t="n">
-        <v>99.80700921714498</v>
+        <v>202.4445175823491</v>
       </c>
       <c r="X27" t="n">
         <v>156.522519624907</v>
       </c>
       <c r="Y27" t="n">
-        <v>53.79472183352976</v>
+        <v>156.4322301987339</v>
       </c>
     </row>
     <row r="28">
@@ -24606,25 +24606,25 @@
         <v>117.9963555200573</v>
       </c>
       <c r="D28" t="n">
-        <v>99.36500743964184</v>
+        <v>99.36500743964187</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>97.18349706799869</v>
       </c>
       <c r="F28" t="n">
-        <v>96.17058244436073</v>
+        <v>49.8761796143913</v>
       </c>
       <c r="G28" t="n">
-        <v>118.7405137798882</v>
+        <v>118.7405137798883</v>
       </c>
       <c r="H28" t="n">
         <v>112.9767069288691</v>
       </c>
       <c r="I28" t="n">
-        <v>106.2000093486878</v>
+        <v>3.56250098348373</v>
       </c>
       <c r="J28" t="n">
-        <v>44.10871453810226</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>36.91157767312387</v>
+        <v>36.9115776731239</v>
       </c>
       <c r="R28" t="n">
         <v>128.042925798599</v>
       </c>
       <c r="S28" t="n">
-        <v>78.90900379312454</v>
+        <v>72.12862409319771</v>
       </c>
       <c r="T28" t="n">
         <v>178.695123849711</v>
@@ -24660,13 +24660,13 @@
         <v>237.0685637779204</v>
       </c>
       <c r="V28" t="n">
-        <v>100.2496693800534</v>
+        <v>202.8871777452575</v>
       </c>
       <c r="W28" t="n">
-        <v>134.6350243928164</v>
+        <v>237.2725327580205</v>
       </c>
       <c r="X28" t="n">
-        <v>176.4591898104666</v>
+        <v>73.82168144526261</v>
       </c>
       <c r="Y28" t="n">
         <v>169.3341877735243</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>333.48337608491</v>
+        <v>333.4833760849101</v>
       </c>
       <c r="C29" t="n">
-        <v>316.022426192437</v>
+        <v>316.0224261924371</v>
       </c>
       <c r="D29" t="n">
-        <v>305.4325760421124</v>
+        <v>305.4325760421125</v>
       </c>
       <c r="E29" t="n">
-        <v>230.0423961284872</v>
+        <v>332.6799044936913</v>
       </c>
       <c r="F29" t="n">
-        <v>254.9880717979368</v>
+        <v>254.9880717979369</v>
       </c>
       <c r="G29" t="n">
-        <v>366.0522719365645</v>
+        <v>366.0522719365646</v>
       </c>
       <c r="H29" t="n">
-        <v>290.2243365371966</v>
+        <v>290.2243365371967</v>
       </c>
       <c r="I29" t="n">
-        <v>161.2254239918354</v>
+        <v>70.82230662376367</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>100.6186523625792</v>
       </c>
       <c r="S29" t="n">
-        <v>57.13209564247074</v>
+        <v>159.7696040076748</v>
       </c>
       <c r="T29" t="n">
-        <v>173.8453839855608</v>
+        <v>173.8453839855609</v>
       </c>
       <c r="U29" t="n">
         <v>202.095187329266</v>
       </c>
       <c r="V29" t="n">
-        <v>278.5017928915644</v>
+        <v>175.8642845263604</v>
       </c>
       <c r="W29" t="n">
-        <v>299.9905031388425</v>
+        <v>197.3529947736385</v>
       </c>
       <c r="X29" t="n">
-        <v>320.4806350998985</v>
+        <v>320.4806350998986</v>
       </c>
       <c r="Y29" t="n">
-        <v>246.5843557094113</v>
+        <v>336.9874730774831</v>
       </c>
     </row>
     <row r="30">
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>117.2827180712968</v>
+        <v>117.2827180712969</v>
       </c>
       <c r="C30" t="n">
-        <v>83.96228461574611</v>
+        <v>123.4580334097453</v>
       </c>
       <c r="D30" t="n">
-        <v>98.19459998606824</v>
+        <v>98.19459998606827</v>
       </c>
       <c r="E30" t="n">
-        <v>108.3946148768304</v>
+        <v>48.02928531744328</v>
       </c>
       <c r="F30" t="n">
-        <v>95.81874681481337</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>88.09305158464012</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>62.98497865792595</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>40.14616727284456</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,22 +24812,22 @@
         <v>122.4327055252673</v>
       </c>
       <c r="T30" t="n">
-        <v>48.27675475104701</v>
+        <v>150.9142631162511</v>
       </c>
       <c r="U30" t="n">
         <v>176.6909165024043</v>
       </c>
       <c r="V30" t="n">
-        <v>183.5501215708547</v>
+        <v>183.5501215708548</v>
       </c>
       <c r="W30" t="n">
         <v>202.4445175823491</v>
       </c>
       <c r="X30" t="n">
-        <v>53.88501125970288</v>
+        <v>156.522519624907</v>
       </c>
       <c r="Y30" t="n">
-        <v>53.79472183352976</v>
+        <v>156.4322301987339</v>
       </c>
     </row>
     <row r="31">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>130.5815146033668</v>
+        <v>84.28711177339736</v>
       </c>
       <c r="C31" t="n">
-        <v>64.50481582510943</v>
+        <v>15.35884715485328</v>
       </c>
       <c r="D31" t="n">
-        <v>99.36500743964184</v>
+        <v>99.36500743964187</v>
       </c>
       <c r="E31" t="n">
-        <v>97.18349706799866</v>
+        <v>97.18349706799869</v>
       </c>
       <c r="F31" t="n">
-        <v>96.17058244436073</v>
+        <v>96.17058244436076</v>
       </c>
       <c r="G31" t="n">
-        <v>118.7405137798882</v>
+        <v>118.7405137798883</v>
       </c>
       <c r="H31" t="n">
         <v>112.9767069288691</v>
@@ -24861,7 +24861,7 @@
         <v>106.2000093486878</v>
       </c>
       <c r="J31" t="n">
-        <v>44.10871453810226</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>36.9115776731239</v>
       </c>
       <c r="R31" t="n">
         <v>128.042925798599</v>
       </c>
       <c r="S31" t="n">
-        <v>72.12862409319763</v>
+        <v>174.7661324584018</v>
       </c>
       <c r="T31" t="n">
-        <v>178.695123849711</v>
+        <v>76.05761548450695</v>
       </c>
       <c r="U31" t="n">
-        <v>134.4310554127163</v>
+        <v>237.0685637779204</v>
       </c>
       <c r="V31" t="n">
-        <v>202.8871777452575</v>
+        <v>100.2496693800535</v>
       </c>
       <c r="W31" t="n">
         <v>237.2725327580205</v>
       </c>
       <c r="X31" t="n">
-        <v>176.4591898104666</v>
+        <v>176.4591898104667</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.69667940832016</v>
+        <v>169.3341877735243</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>186.7371531816037</v>
+        <v>186.7371531816038</v>
       </c>
       <c r="C32" t="n">
-        <v>169.2762032891306</v>
+        <v>181.510594286263</v>
       </c>
       <c r="D32" t="n">
         <v>261.3238615040102</v>
@@ -24928,7 +24928,7 @@
         <v>288.571189955589</v>
       </c>
       <c r="F32" t="n">
-        <v>313.5168656250387</v>
+        <v>210.8793572598346</v>
       </c>
       <c r="G32" t="n">
         <v>321.9435573984623</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S32" t="n">
         <v>115.6608894695726</v>
       </c>
       <c r="T32" t="n">
-        <v>129.7366694474586</v>
+        <v>27.09916108225451</v>
       </c>
       <c r="U32" t="n">
         <v>157.9864727911637</v>
@@ -24982,10 +24982,10 @@
         <v>255.8817886007402</v>
       </c>
       <c r="X32" t="n">
-        <v>242.4787410182014</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y32" t="n">
-        <v>190.2412501741767</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>62.1202050367658</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>54.08588544796598</v>
@@ -25010,7 +25010,7 @@
         <v>51.7100322767111</v>
       </c>
       <c r="G33" t="n">
-        <v>43.98433704653786</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>18.87626411982369</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>78.32399098716505</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>106.8055485781488</v>
@@ -25058,13 +25058,13 @@
         <v>139.4414070327525</v>
       </c>
       <c r="W33" t="n">
-        <v>55.69829467904273</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X33" t="n">
-        <v>9.776296721600602</v>
+        <v>98.36597546283561</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.686007295427487</v>
+        <v>9.686007295427515</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>86.47280006526452</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>73.88764098195506</v>
@@ -25083,16 +25083,16 @@
         <v>55.25629290153958</v>
       </c>
       <c r="E34" t="n">
-        <v>53.0747825298964</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>52.06186790625847</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>74.63179924178598</v>
       </c>
       <c r="H34" t="n">
-        <v>68.8679923907668</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>62.09129481058551</v>
@@ -25125,16 +25125,16 @@
         <v>83.93421126049671</v>
       </c>
       <c r="S34" t="n">
-        <v>28.01990955509538</v>
+        <v>95.45672671400578</v>
       </c>
       <c r="T34" t="n">
-        <v>31.94890094640462</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U34" t="n">
-        <v>90.32234087461401</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V34" t="n">
-        <v>68.37534583908349</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W34" t="n">
         <v>193.1638182199182</v>
@@ -25143,7 +25143,7 @@
         <v>132.3504752723644</v>
       </c>
       <c r="Y34" t="n">
-        <v>125.225473235422</v>
+        <v>22.58796487021795</v>
       </c>
     </row>
     <row r="35">
@@ -25159,16 +25159,16 @@
         <v>271.9137116543347</v>
       </c>
       <c r="D35" t="n">
-        <v>158.6863531388061</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E35" t="n">
-        <v>185.9336815903849</v>
+        <v>185.933681590385</v>
       </c>
       <c r="F35" t="n">
-        <v>210.8793572598346</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G35" t="n">
-        <v>231.5404400303905</v>
+        <v>219.3060490332582</v>
       </c>
       <c r="H35" t="n">
         <v>246.1156219990944</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>56.50993782447691</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>115.6608894695726</v>
@@ -25213,10 +25213,10 @@
         <v>157.9864727911637</v>
       </c>
       <c r="V35" t="n">
-        <v>234.3930783534621</v>
+        <v>200.4998988098673</v>
       </c>
       <c r="W35" t="n">
-        <v>255.8817886007402</v>
+        <v>153.2442802355362</v>
       </c>
       <c r="X35" t="n">
         <v>276.3719205617963</v>
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>33.55387724763096</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C36" t="n">
-        <v>79.34931887164296</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>54.08588544796598</v>
@@ -25247,7 +25247,7 @@
         <v>51.7100322767111</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>8.617021172070046</v>
       </c>
       <c r="H36" t="n">
         <v>18.87626411982369</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S36" t="n">
-        <v>78.32399098716505</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>4.168040212944703</v>
+        <v>4.16804021294476</v>
       </c>
       <c r="U36" t="n">
-        <v>29.94469359909792</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V36" t="n">
         <v>139.4414070327525</v>
       </c>
       <c r="W36" t="n">
-        <v>158.3358030442468</v>
+        <v>55.69829467904276</v>
       </c>
       <c r="X36" t="n">
-        <v>9.776296721600573</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y36" t="n">
         <v>112.3235156606316</v>
@@ -25317,16 +25317,16 @@
         <v>73.88764098195506</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E37" t="n">
         <v>53.0747825298964</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S37" t="n">
         <v>130.6574179202995</v>
       </c>
       <c r="T37" t="n">
-        <v>133.1142253593576</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U37" t="n">
-        <v>192.9598492398181</v>
+        <v>90.32234087461404</v>
       </c>
       <c r="V37" t="n">
         <v>158.7784632071552</v>
       </c>
       <c r="W37" t="n">
-        <v>193.1638182199182</v>
+        <v>90.52630985471416</v>
       </c>
       <c r="X37" t="n">
-        <v>132.3504752723644</v>
+        <v>70.26913674044084</v>
       </c>
       <c r="Y37" t="n">
         <v>125.225473235422</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>289.3746615468078</v>
+        <v>255.481482003213</v>
       </c>
       <c r="C38" t="n">
         <v>271.9137116543347</v>
@@ -25405,7 +25405,7 @@
         <v>313.5168656250387</v>
       </c>
       <c r="G38" t="n">
-        <v>231.5404400303905</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H38" t="n">
         <v>246.1156219990944</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>56.50993782447691</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>13.02338110436844</v>
+        <v>13.0233811043685</v>
       </c>
       <c r="T38" t="n">
-        <v>27.09916108225445</v>
+        <v>27.09916108225451</v>
       </c>
       <c r="U38" t="n">
-        <v>55.34896442595959</v>
+        <v>55.34896442595965</v>
       </c>
       <c r="V38" t="n">
         <v>234.3930783534621</v>
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C39" t="n">
-        <v>44.60534169469699</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D39" t="n">
         <v>54.08588544796598</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25526,19 +25526,19 @@
         <v>106.8055485781488</v>
       </c>
       <c r="U39" t="n">
-        <v>132.582201964302</v>
+        <v>29.94469359909797</v>
       </c>
       <c r="V39" t="n">
-        <v>139.4414070327525</v>
+        <v>36.80389866754842</v>
       </c>
       <c r="W39" t="n">
-        <v>158.3358030442468</v>
+        <v>55.69829467904276</v>
       </c>
       <c r="X39" t="n">
-        <v>9.776296721600573</v>
+        <v>100.334678705898</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.686007295427459</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.00389395768946</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C40" t="n">
         <v>73.88764098195506</v>
@@ -25569,7 +25569,7 @@
         <v>68.8679923907668</v>
       </c>
       <c r="I40" t="n">
-        <v>62.09129481058551</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S40" t="n">
-        <v>28.01990955509535</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T40" t="n">
         <v>134.5864093116087</v>
       </c>
       <c r="U40" t="n">
-        <v>192.9598492398181</v>
+        <v>90.32234087461404</v>
       </c>
       <c r="V40" t="n">
-        <v>158.7784632071552</v>
+        <v>56.14095484195116</v>
       </c>
       <c r="W40" t="n">
-        <v>90.5263098547141</v>
+        <v>90.52630985471416</v>
       </c>
       <c r="X40" t="n">
-        <v>29.71296690716025</v>
+        <v>104.0386527148781</v>
       </c>
       <c r="Y40" t="n">
         <v>125.225473235422</v>
@@ -25636,19 +25636,19 @@
         <v>305.4325760421124</v>
       </c>
       <c r="E41" t="n">
-        <v>242.2767871256194</v>
+        <v>332.6799044936913</v>
       </c>
       <c r="F41" t="n">
         <v>254.9880717979368</v>
       </c>
       <c r="G41" t="n">
-        <v>366.0522719365645</v>
+        <v>263.4147635713605</v>
       </c>
       <c r="H41" t="n">
-        <v>187.5868281719925</v>
+        <v>290.2243365371966</v>
       </c>
       <c r="I41" t="n">
-        <v>161.2254239918354</v>
+        <v>70.82230662376364</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>159.7696040076748</v>
       </c>
       <c r="T41" t="n">
-        <v>71.2078756203567</v>
+        <v>71.20787562035679</v>
       </c>
       <c r="U41" t="n">
         <v>202.095187329266</v>
@@ -25712,22 +25712,22 @@
         <v>123.4580334097452</v>
       </c>
       <c r="D42" t="n">
-        <v>98.19459998606824</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>108.3946148768304</v>
+        <v>5.757106511626375</v>
       </c>
       <c r="F42" t="n">
-        <v>95.81874681481337</v>
+        <v>95.81874681481338</v>
       </c>
       <c r="G42" t="n">
-        <v>88.09305158464012</v>
+        <v>88.09305158464014</v>
       </c>
       <c r="H42" t="n">
-        <v>62.98497865792595</v>
+        <v>62.98497865792596</v>
       </c>
       <c r="I42" t="n">
-        <v>40.14616727284456</v>
+        <v>40.14616727284457</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.90736857407262</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>122.4327055252673</v>
+        <v>78.49404835213238</v>
       </c>
       <c r="T42" t="n">
-        <v>48.27675475104698</v>
+        <v>150.9142631162511</v>
       </c>
       <c r="U42" t="n">
-        <v>86.28779913433252</v>
+        <v>176.6909165024043</v>
       </c>
       <c r="V42" t="n">
-        <v>80.91261320565062</v>
+        <v>183.5501215708548</v>
       </c>
       <c r="W42" t="n">
-        <v>99.80700921714495</v>
+        <v>99.80700921714504</v>
       </c>
       <c r="X42" t="n">
         <v>156.522519624907</v>
@@ -25791,25 +25791,25 @@
         <v>117.9963555200573</v>
       </c>
       <c r="D43" t="n">
-        <v>99.36500743964184</v>
+        <v>99.36500743964186</v>
       </c>
       <c r="E43" t="n">
-        <v>97.18349706799866</v>
+        <v>97.18349706799867</v>
       </c>
       <c r="F43" t="n">
-        <v>96.17058244436073</v>
+        <v>96.17058244436075</v>
       </c>
       <c r="G43" t="n">
-        <v>16.10300541468412</v>
+        <v>118.7405137798883</v>
       </c>
       <c r="H43" t="n">
-        <v>10.33919856366494</v>
+        <v>103.5938817720235</v>
       </c>
       <c r="I43" t="n">
-        <v>106.2000093486878</v>
+        <v>3.562500983483716</v>
       </c>
       <c r="J43" t="n">
-        <v>44.10871453810226</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.91157767312387</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.042925798599</v>
+        <v>25.40541743339492</v>
       </c>
       <c r="S43" t="n">
-        <v>174.7661324584017</v>
+        <v>174.7661324584018</v>
       </c>
       <c r="T43" t="n">
         <v>178.695123849711</v>
@@ -25848,13 +25848,13 @@
         <v>202.8871777452575</v>
       </c>
       <c r="W43" t="n">
-        <v>237.2725327580205</v>
+        <v>134.6350243928164</v>
       </c>
       <c r="X43" t="n">
-        <v>73.8216814452625</v>
+        <v>176.4591898104667</v>
       </c>
       <c r="Y43" t="n">
-        <v>78.93107040545246</v>
+        <v>169.3341877735243</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>333.48337608491</v>
       </c>
       <c r="C44" t="n">
-        <v>213.3849178272329</v>
+        <v>316.022426192437</v>
       </c>
       <c r="D44" t="n">
         <v>305.4325760421124</v>
@@ -25876,7 +25876,7 @@
         <v>332.6799044936913</v>
       </c>
       <c r="F44" t="n">
-        <v>357.6255801631409</v>
+        <v>265.2036067924442</v>
       </c>
       <c r="G44" t="n">
         <v>366.0522719365645</v>
@@ -25885,7 +25885,7 @@
         <v>187.5868281719925</v>
       </c>
       <c r="I44" t="n">
-        <v>58.58791562663126</v>
+        <v>161.2254239918354</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>100.6186523625792</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>69.36648663960307</v>
+        <v>57.13209564247074</v>
       </c>
       <c r="T44" t="n">
-        <v>173.8453839855608</v>
+        <v>173.8453839855609</v>
       </c>
       <c r="U44" t="n">
         <v>202.095187329266</v>
@@ -25946,25 +25946,25 @@
         <v>117.2827180712968</v>
       </c>
       <c r="C45" t="n">
-        <v>123.4580334097452</v>
+        <v>20.82052504454114</v>
       </c>
       <c r="D45" t="n">
-        <v>98.19459998606824</v>
+        <v>98.19459998606825</v>
       </c>
       <c r="E45" t="n">
-        <v>5.757106511626304</v>
+        <v>108.3946148768304</v>
       </c>
       <c r="F45" t="n">
-        <v>95.81874681481337</v>
+        <v>95.81874681481338</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>88.09305158464014</v>
       </c>
       <c r="H45" t="n">
-        <v>62.98497865792595</v>
+        <v>62.98497865792596</v>
       </c>
       <c r="I45" t="n">
-        <v>40.14616727284456</v>
+        <v>40.14616727284457</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>19.79519716006318</v>
+        <v>82.93695673126817</v>
       </c>
       <c r="T45" t="n">
         <v>150.9142631162511</v>
@@ -26003,10 +26003,10 @@
         <v>176.6909165024043</v>
       </c>
       <c r="V45" t="n">
-        <v>183.5501215708547</v>
+        <v>80.91261320565067</v>
       </c>
       <c r="W45" t="n">
-        <v>148.4043120077859</v>
+        <v>99.80700921714501</v>
       </c>
       <c r="X45" t="n">
         <v>156.522519624907</v>
@@ -26028,25 +26028,25 @@
         <v>117.9963555200573</v>
       </c>
       <c r="D46" t="n">
-        <v>99.36500743964184</v>
+        <v>99.36500743964186</v>
       </c>
       <c r="E46" t="n">
-        <v>97.18349706799866</v>
+        <v>97.18349706799867</v>
       </c>
       <c r="F46" t="n">
-        <v>96.17058244436073</v>
+        <v>96.17058244436075</v>
       </c>
       <c r="G46" t="n">
-        <v>118.7405137798882</v>
+        <v>118.7405137798883</v>
       </c>
       <c r="H46" t="n">
-        <v>112.9767069288691</v>
+        <v>10.33919856366498</v>
       </c>
       <c r="I46" t="n">
-        <v>106.2000093486878</v>
+        <v>3.562500983483687</v>
       </c>
       <c r="J46" t="n">
-        <v>44.10871453810226</v>
+        <v>44.10871453810227</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,28 +26067,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.91157767312387</v>
+        <v>36.91157767312388</v>
       </c>
       <c r="R46" t="n">
-        <v>128.042925798599</v>
+        <v>37.63980843052721</v>
       </c>
       <c r="S46" t="n">
-        <v>174.7661324584017</v>
+        <v>72.12862409319766</v>
       </c>
       <c r="T46" t="n">
-        <v>76.05761548450684</v>
+        <v>178.695123849711</v>
       </c>
       <c r="U46" t="n">
-        <v>134.4310554127162</v>
+        <v>237.0685637779204</v>
       </c>
       <c r="V46" t="n">
-        <v>112.4840603771857</v>
+        <v>202.8871777452575</v>
       </c>
       <c r="W46" t="n">
-        <v>134.6350243928163</v>
+        <v>237.2725327580205</v>
       </c>
       <c r="X46" t="n">
-        <v>176.4591898104666</v>
+        <v>176.4591898104667</v>
       </c>
       <c r="Y46" t="n">
         <v>169.3341877735243</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>450017.3567981954</v>
+        <v>450017.3567981953</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>450017.3567981954</v>
+        <v>450017.3567981953</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>521640.8410721582</v>
+        <v>521640.841072158</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>441600.1450856424</v>
+        <v>441600.1450856422</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>441600.1450856423</v>
+        <v>441600.1450856422</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>525451.6908216662</v>
+        <v>525451.690821666</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>525451.6908216657</v>
+        <v>525451.6908216658</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811868</v>
+        <v>778312.5217811865</v>
       </c>
       <c r="C2" t="n">
-        <v>778312.5217811865</v>
+        <v>778312.5217811863</v>
       </c>
       <c r="D2" t="n">
         <v>778312.5217811863</v>
       </c>
       <c r="E2" t="n">
+        <v>401662.8339627977</v>
+      </c>
+      <c r="F2" t="n">
         <v>401662.8339627975</v>
       </c>
-      <c r="F2" t="n">
-        <v>401662.8339627977</v>
-      </c>
       <c r="G2" t="n">
-        <v>413113.8193326941</v>
+        <v>413113.8193326938</v>
       </c>
       <c r="H2" t="n">
         <v>413113.8193326939</v>
       </c>
       <c r="I2" t="n">
-        <v>468360.198942407</v>
+        <v>468360.1989424068</v>
       </c>
       <c r="J2" t="n">
-        <v>373311.8724584196</v>
+        <v>373311.8724584195</v>
       </c>
       <c r="K2" t="n">
-        <v>373311.8724584198</v>
+        <v>373311.8724584197</v>
       </c>
       <c r="L2" t="n">
+        <v>472885.5830199471</v>
+      </c>
+      <c r="M2" t="n">
         <v>472885.5830199469</v>
-      </c>
-      <c r="M2" t="n">
-        <v>472885.5830199471</v>
       </c>
       <c r="N2" t="n">
         <v>472885.583019947</v>
       </c>
       <c r="O2" t="n">
+        <v>373311.8724584196</v>
+      </c>
+      <c r="P2" t="n">
         <v>373311.8724584198</v>
-      </c>
-      <c r="P2" t="n">
-        <v>373311.8724584196</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4113.400832374611</v>
+        <v>4113.400832374572</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27293.46886198344</v>
+        <v>27293.46886198343</v>
       </c>
       <c r="J3" t="n">
         <v>35286.97163048181</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>39400.37246285642</v>
+        <v>39400.3724628564</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26432,19 +26432,19 @@
         <v>220730.6825568449</v>
       </c>
       <c r="G4" t="n">
-        <v>227610.5198536343</v>
+        <v>227610.5198536342</v>
       </c>
       <c r="H4" t="n">
-        <v>227610.5198536343</v>
+        <v>227610.5198536342</v>
       </c>
       <c r="I4" t="n">
-        <v>256505.3216889294</v>
+        <v>256505.3216889293</v>
       </c>
       <c r="J4" t="n">
-        <v>199399.5792205975</v>
+        <v>199399.5792205974</v>
       </c>
       <c r="K4" t="n">
-        <v>199399.5792205975</v>
+        <v>199399.5792205974</v>
       </c>
       <c r="L4" t="n">
         <v>259224.2061476247</v>
@@ -26453,7 +26453,7 @@
         <v>259224.2061476247</v>
       </c>
       <c r="N4" t="n">
-        <v>259224.2061476247</v>
+        <v>259224.2061476248</v>
       </c>
       <c r="O4" t="n">
         <v>199399.5792205975</v>
@@ -26484,10 +26484,10 @@
         <v>7243.556814126696</v>
       </c>
       <c r="G5" t="n">
-        <v>7675.818682347822</v>
+        <v>7675.818682347817</v>
       </c>
       <c r="H5" t="n">
-        <v>7675.818682347822</v>
+        <v>7675.818682347817</v>
       </c>
       <c r="I5" t="n">
         <v>13916.17919095223</v>
@@ -26502,16 +26502,16 @@
         <v>14088.97342183297</v>
       </c>
       <c r="M5" t="n">
-        <v>14088.97342183298</v>
+        <v>14088.97342183297</v>
       </c>
       <c r="N5" t="n">
-        <v>14088.97342183298</v>
+        <v>14088.97342183297</v>
       </c>
       <c r="O5" t="n">
-        <v>10380.79789932926</v>
+        <v>10380.79789932925</v>
       </c>
       <c r="P5" t="n">
-        <v>10380.79789932926</v>
+        <v>10380.79789932925</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>297660.301508794</v>
+        <v>297616.1657301125</v>
       </c>
       <c r="C6" t="n">
-        <v>297660.3015087936</v>
+        <v>297616.1657301123</v>
       </c>
       <c r="D6" t="n">
-        <v>297660.3015087935</v>
+        <v>297616.1657301123</v>
       </c>
       <c r="E6" t="n">
-        <v>104758.9599904704</v>
+        <v>94802.99032183191</v>
       </c>
       <c r="F6" t="n">
-        <v>173688.5945918261</v>
+        <v>163732.6249231872</v>
       </c>
       <c r="G6" t="n">
-        <v>173714.0799643373</v>
+        <v>164059.4520159589</v>
       </c>
       <c r="H6" t="n">
-        <v>177827.4807967118</v>
+        <v>168172.8528483336</v>
       </c>
       <c r="I6" t="n">
-        <v>170645.2292005419</v>
+        <v>162444.453347156</v>
       </c>
       <c r="J6" t="n">
-        <v>128244.5237080111</v>
+        <v>117542.4761050466</v>
       </c>
       <c r="K6" t="n">
-        <v>163531.495338493</v>
+        <v>152829.4477355285</v>
       </c>
       <c r="L6" t="n">
-        <v>160172.0309876328</v>
+        <v>152090.3441889192</v>
       </c>
       <c r="M6" t="n">
-        <v>199572.4034504894</v>
+        <v>191490.7166517755</v>
       </c>
       <c r="N6" t="n">
-        <v>199572.4034504893</v>
+        <v>191490.7166517755</v>
       </c>
       <c r="O6" t="n">
-        <v>163531.495338493</v>
+        <v>152829.4477355285</v>
       </c>
       <c r="P6" t="n">
-        <v>163531.4953384929</v>
+        <v>152829.4477355286</v>
       </c>
     </row>
   </sheetData>
@@ -26700,19 +26700,19 @@
         <v>86.16204325169439</v>
       </c>
       <c r="G2" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="H2" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="I2" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="J2" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="K2" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="L2" t="n">
         <v>93.35918011667277</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.141751040468264</v>
+        <v>5.141751040468215</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.10871453810226</v>
+        <v>44.10871453810227</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.141751040468264</v>
+        <v>5.141751040468215</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.10871453810226</v>
+        <v>44.10871453810227</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="C17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="D17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="E17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="F17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="G17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="H17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="I17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28611,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="S17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="T17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="U17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="V17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="W17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="X17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="Y17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
     </row>
     <row r="18">
@@ -28642,25 +28642,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="C18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="D18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="E18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="F18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="G18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="H18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="S18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="T18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="U18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="V18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="W18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="X18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="Y18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
     </row>
     <row r="19">
@@ -28721,31 +28721,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="C19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="D19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="E19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="F19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="G19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="H19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="I19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="J19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="K19" t="n">
         <v>22.26949182588285</v>
@@ -28769,28 +28769,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="S19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="T19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="U19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="V19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="W19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="X19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="Y19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="C20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="D20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="E20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="F20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="G20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="H20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="I20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28848,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="S20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="T20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="U20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="V20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="W20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="X20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="Y20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
     </row>
     <row r="21">
@@ -28879,25 +28879,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="C21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="D21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="E21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="F21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="G21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="H21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="S21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="T21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="U21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="V21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="W21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="X21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="Y21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
     </row>
     <row r="22">
@@ -28958,31 +28958,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="C22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="D22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="E22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="F22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="G22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="H22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="I22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="J22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="K22" t="n">
         <v>22.26949182588285</v>
@@ -29006,28 +29006,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="S22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="T22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="U22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="V22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="W22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="X22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="Y22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="C23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="D23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="E23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="F23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="G23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="H23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="I23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29085,28 +29085,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="S23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="T23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="U23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="V23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="W23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="X23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="Y23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
     </row>
     <row r="24">
@@ -29116,25 +29116,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="C24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="D24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="E24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="F24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="G24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="H24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -29164,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="S24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="T24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="U24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="V24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="W24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="X24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="Y24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
     </row>
     <row r="25">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="C25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="D25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="E25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="F25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="G25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="H25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="I25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="J25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="K25" t="n">
-        <v>91.30379429216265</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
-        <v>75.04748310488796</v>
+        <v>55.22878892357031</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>63.05363140336348</v>
       </c>
       <c r="N25" t="n">
-        <v>32.70597074174152</v>
+        <v>58.50533598597548</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="Q25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="R25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="S25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="T25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="U25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="V25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="W25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="X25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="Y25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216259</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="C26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="D26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="E26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="F26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="G26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="H26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="I26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29322,28 +29322,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="S26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="T26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="U26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="V26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="W26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="X26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="Y26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
     </row>
     <row r="27">
@@ -29353,28 +29353,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="C27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="D27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="E27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="F27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="G27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="H27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="I27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29401,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="S27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="T27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="U27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="V27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="W27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="X27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="Y27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="C28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="D28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="E28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="F28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="G28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="H28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="I28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="J28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="K28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="L28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="M28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="N28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="O28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="P28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="R28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="S28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="T28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="U28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="V28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="W28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="X28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="Y28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="C29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="D29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="E29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="F29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="G29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="H29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="I29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -29559,28 +29559,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="S29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="T29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="U29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="V29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="W29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="X29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="Y29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
     </row>
     <row r="30">
@@ -29590,28 +29590,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="C30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="D30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="E30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="F30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="G30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="H30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="I30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -29638,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="S30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="T30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="U30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="V30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="W30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="X30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="Y30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="C31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="D31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="E31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="F31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="G31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="H31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="I31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="J31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="K31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="L31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="M31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="N31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="O31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="P31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="R31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="S31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="T31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="U31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="V31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="W31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="X31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="Y31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857048</v>
       </c>
     </row>
     <row r="32">
@@ -29936,16 +29936,16 @@
         <v>93.35918011667277</v>
       </c>
       <c r="L34" t="n">
-        <v>23.53491592193476</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>58.50533598597548</v>
       </c>
       <c r="O34" t="n">
-        <v>78.05238045116442</v>
+        <v>43.08196038712356</v>
       </c>
       <c r="P34" t="n">
         <v>93.35918011667277</v>
@@ -30170,19 +30170,19 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>93.35918011667277</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
-        <v>75.04748310488799</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>26.53981326821125</v>
+        <v>36.11926822674906</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>58.50533598597548</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>78.0523804511644</v>
       </c>
       <c r="P37" t="n">
         <v>93.35918011667277</v>
@@ -30410,16 +30410,16 @@
         <v>93.35918011667277</v>
       </c>
       <c r="L40" t="n">
-        <v>38.53366496973568</v>
+        <v>75.04748310488793</v>
       </c>
       <c r="M40" t="n">
-        <v>63.05363140336354</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>26.53981326821116</v>
       </c>
       <c r="P40" t="n">
         <v>93.35918011667277</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L23" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="N23" t="n">
-        <v>7.924825914033268</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O23" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024634</v>
       </c>
       <c r="P23" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="M24" t="n">
-        <v>28.39502468041881</v>
+        <v>28.39502468041875</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P24" t="n">
         <v>102.6375083652041</v>
@@ -36518,25 +36518,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>69.0343024662798</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>82.81881418388645</v>
+      </c>
+      <c r="M25" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="M25" t="n">
-        <v>39.58387696184059</v>
-      </c>
       <c r="N25" t="n">
-        <v>76.83814312097012</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O25" t="n">
         <v>24.58512791403967</v>
       </c>
       <c r="P25" t="n">
-        <v>88.58235355705614</v>
+        <v>88.58235355705608</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.141751040468264</v>
+        <v>5.141751040468208</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L26" t="n">
-        <v>7.924825914033272</v>
+        <v>98.49053833024631</v>
       </c>
       <c r="M26" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>102.6375083652041</v>
@@ -36612,7 +36612,7 @@
         <v>102.6375083652041</v>
       </c>
       <c r="P26" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36688,13 +36688,13 @@
         <v>102.6375083652041</v>
       </c>
       <c r="O27" t="n">
-        <v>28.39502468041878</v>
+        <v>98.49053833024634</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>26.98097375268766</v>
+        <v>26.98097375268763</v>
       </c>
       <c r="L28" t="n">
-        <v>76.84049083888665</v>
+        <v>76.84049083888662</v>
       </c>
       <c r="M28" t="n">
-        <v>88.8343425404111</v>
+        <v>88.83434254041107</v>
       </c>
       <c r="N28" t="n">
-        <v>93.3826379577991</v>
+        <v>93.38263795779908</v>
       </c>
       <c r="O28" t="n">
-        <v>73.83559349261019</v>
+        <v>73.83559349261016</v>
       </c>
       <c r="P28" t="n">
-        <v>46.529024843464</v>
+        <v>46.52902484346397</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36834,19 +36834,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>98.49053833024638</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L29" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N29" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024634</v>
       </c>
       <c r="O29" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>28.39502468041874</v>
+      </c>
+      <c r="N30" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="L30" t="n">
+      <c r="O30" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="M30" t="n">
+      <c r="P30" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="N30" t="n">
-        <v>28.39502468041878</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>26.98097375268766</v>
+        <v>26.98097375268763</v>
       </c>
       <c r="L31" t="n">
-        <v>76.84049083888665</v>
+        <v>76.84049083888662</v>
       </c>
       <c r="M31" t="n">
-        <v>88.8343425404111</v>
+        <v>88.83434254041111</v>
       </c>
       <c r="N31" t="n">
-        <v>93.3826379577991</v>
+        <v>93.38263795779908</v>
       </c>
       <c r="O31" t="n">
-        <v>73.83559349261019</v>
+        <v>73.83559349261016</v>
       </c>
       <c r="P31" t="n">
-        <v>46.529024843464</v>
+        <v>46.52902484346397</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>98.49053833024631</v>
+      </c>
+      <c r="M32" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="L32" t="n">
-        <v>7.924825914033268</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>102.6375083652041</v>
@@ -37086,7 +37086,7 @@
         <v>102.6375083652041</v>
       </c>
       <c r="P32" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>102.6375083652041</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M33" t="n">
+        <v>98.49053833024634</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="N33" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="O33" t="n">
-        <v>28.39502468041878</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,16 +37232,16 @@
         <v>71.08968829078992</v>
       </c>
       <c r="L34" t="n">
-        <v>51.1249411822509</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="N34" t="n">
-        <v>44.13217237922859</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O34" t="n">
-        <v>102.6375083652041</v>
+        <v>67.66708830116323</v>
       </c>
       <c r="P34" t="n">
         <v>90.63773938156626</v>
@@ -37308,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L35" t="n">
-        <v>7.92482591403327</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M35" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024634</v>
       </c>
       <c r="N35" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="O35" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>28.39502468041879</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>102.6375083652041</v>
@@ -37399,13 +37399,13 @@
         <v>102.6375083652041</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>98.49053833024634</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,19 +37466,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>71.08968829078992</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="M37" t="n">
+        <v>75.70314518858964</v>
+      </c>
+      <c r="N37" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="M37" t="n">
-        <v>66.12369023005184</v>
-      </c>
-      <c r="N37" t="n">
-        <v>44.13217237922859</v>
-      </c>
       <c r="O37" t="n">
-        <v>24.58512791403967</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P37" t="n">
         <v>90.63773938156626</v>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>7.92482591403327</v>
+        <v>98.49053833024631</v>
       </c>
       <c r="L38" t="n">
         <v>102.6375083652041</v>
@@ -37554,13 +37554,13 @@
         <v>102.6375083652041</v>
       </c>
       <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>98.49053833024635</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M39" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>102.6375083652041</v>
+        <v>28.39502468041878</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>102.6375083652041</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,16 +37706,16 @@
         <v>71.08968829078992</v>
       </c>
       <c r="L40" t="n">
-        <v>66.12369023005182</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M40" t="n">
-        <v>102.6375083652041</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N40" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="O40" t="n">
-        <v>24.58512791403967</v>
+        <v>51.12494118225083</v>
       </c>
       <c r="P40" t="n">
         <v>90.63773938156626</v>
@@ -37782,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>7.92482591403327</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L41" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="M41" t="n">
-        <v>102.6375083652041</v>
+        <v>7.924825914033239</v>
       </c>
       <c r="N41" t="n">
         <v>102.6375083652041</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L42" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O42" t="n">
-        <v>28.39502468041881</v>
+        <v>28.39502468041878</v>
       </c>
       <c r="P42" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>26.98097375268766</v>
+        <v>26.98097375268765</v>
       </c>
       <c r="L43" t="n">
-        <v>76.84049083888665</v>
+        <v>76.84049083888664</v>
       </c>
       <c r="M43" t="n">
-        <v>88.8343425404111</v>
+        <v>88.83434254041109</v>
       </c>
       <c r="N43" t="n">
-        <v>93.3826379577991</v>
+        <v>93.38263795779909</v>
       </c>
       <c r="O43" t="n">
-        <v>73.83559349261019</v>
+        <v>73.83559349261017</v>
       </c>
       <c r="P43" t="n">
-        <v>46.529024843464</v>
+        <v>46.52902484346399</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>102.6375083652041</v>
+        <v>7.924825914033272</v>
       </c>
       <c r="M44" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O44" t="n">
-        <v>7.924825914033296</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L45" t="n">
-        <v>98.49053833024635</v>
+        <v>28.39502468041882</v>
       </c>
       <c r="M45" t="n">
         <v>102.6375083652041</v>
@@ -38110,13 +38110,13 @@
         <v>102.6375083652041</v>
       </c>
       <c r="O45" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>26.98097375268766</v>
+        <v>26.98097375268765</v>
       </c>
       <c r="L46" t="n">
-        <v>76.84049083888665</v>
+        <v>76.84049083888664</v>
       </c>
       <c r="M46" t="n">
-        <v>88.8343425404111</v>
+        <v>88.83434254041109</v>
       </c>
       <c r="N46" t="n">
-        <v>93.3826379577991</v>
+        <v>93.38263795779909</v>
       </c>
       <c r="O46" t="n">
-        <v>73.83559349261019</v>
+        <v>73.83559349261017</v>
       </c>
       <c r="P46" t="n">
-        <v>46.529024843464</v>
+        <v>46.52902484346399</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
